--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>Diff4Q_1</t>
+  </si>
+  <si>
+    <t>Bulls</t>
+  </si>
+  <si>
+    <t>Thunder</t>
   </si>
 </sst>
 </file>
@@ -647,7 +653,7 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,9 +784,15 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="14"/>
       <c r="F3" s="20"/>

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -653,7 +653,7 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,16 +771,16 @@
         <v>24</v>
       </c>
       <c r="O2" s="23">
-        <f>M2-N2</f>
-        <v>2</v>
+        <f>N2-M2</f>
+        <v>-2</v>
       </c>
       <c r="P2" s="19">
-        <f>F2-L2</f>
-        <v>11</v>
+        <f>L2-F2</f>
+        <v>-11</v>
       </c>
       <c r="Q2" s="23">
-        <f>I2-O2</f>
-        <v>4</v>
+        <f>O2-I2</f>
+        <v>-8</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -795,18 +795,44 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="20"/>
+      <c r="F3" s="19">
+        <f t="shared" ref="F3:F10" si="0">D3-E3</f>
+        <v>0</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="24"/>
+      <c r="I3" s="23">
+        <f t="shared" ref="I3:I10" si="1">G3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>97</v>
+      </c>
+      <c r="K3" s="14">
+        <v>96</v>
+      </c>
+      <c r="L3" s="19">
+        <f t="shared" ref="L3:L10" si="2">J3-K3</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="4">
+        <v>21</v>
+      </c>
+      <c r="N3" s="8">
+        <v>25</v>
+      </c>
+      <c r="O3" s="23">
+        <f t="shared" ref="O3:O10" si="3">N3-M3</f>
+        <v>4</v>
+      </c>
+      <c r="P3" s="19">
+        <f t="shared" ref="P3:P10" si="4">L3-F3</f>
+        <v>1</v>
+      </c>
+      <c r="Q3" s="23">
+        <f t="shared" ref="Q3:Q10" si="5">O3-I3</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="29"/>
@@ -814,18 +840,36 @@
       <c r="C4" s="29"/>
       <c r="D4" s="11"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="20"/>
+      <c r="F4" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G4" s="4"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="24"/>
+      <c r="I4" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J4" s="17"/>
       <c r="K4" s="14"/>
-      <c r="L4" s="20"/>
+      <c r="L4" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M4" s="4"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="24"/>
+      <c r="O4" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="29"/>
@@ -833,18 +877,36 @@
       <c r="C5" s="29"/>
       <c r="D5" s="11"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="20"/>
+      <c r="F5" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="24"/>
+      <c r="I5" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="20"/>
+      <c r="L5" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M5" s="4"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="24"/>
+      <c r="O5" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="29"/>
@@ -852,18 +914,36 @@
       <c r="C6" s="29"/>
       <c r="D6" s="11"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J6" s="17"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="20"/>
+      <c r="L6" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M6" s="4"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="24"/>
+      <c r="O6" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="29"/>
@@ -871,18 +951,36 @@
       <c r="C7" s="29"/>
       <c r="D7" s="11"/>
       <c r="E7" s="14"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J7" s="17"/>
       <c r="K7" s="14"/>
-      <c r="L7" s="20"/>
+      <c r="L7" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M7" s="4"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="24"/>
+      <c r="O7" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
@@ -890,18 +988,36 @@
       <c r="C8" s="29"/>
       <c r="D8" s="11"/>
       <c r="E8" s="14"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J8" s="17"/>
       <c r="K8" s="14"/>
-      <c r="L8" s="20"/>
+      <c r="L8" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M8" s="4"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="24"/>
+      <c r="O8" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
@@ -909,18 +1025,36 @@
       <c r="C9" s="29"/>
       <c r="D9" s="11"/>
       <c r="E9" s="14"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J9" s="17"/>
       <c r="K9" s="14"/>
-      <c r="L9" s="20"/>
+      <c r="L9" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M9" s="4"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="24"/>
+      <c r="O9" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
@@ -928,18 +1062,36 @@
       <c r="C10" s="29"/>
       <c r="D10" s="11"/>
       <c r="E10" s="14"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="J10" s="17"/>
       <c r="K10" s="14"/>
-      <c r="L10" s="20"/>
+      <c r="L10" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="M10" s="4"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="24"/>
+      <c r="O10" s="23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
@@ -953,7 +1105,7 @@
       <c r="I11" s="24"/>
       <c r="J11" s="17"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="20"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="4"/>
       <c r="N11" s="8"/>
       <c r="O11" s="24"/>
@@ -972,7 +1124,7 @@
       <c r="I12" s="24"/>
       <c r="J12" s="17"/>
       <c r="K12" s="14"/>
-      <c r="L12" s="20"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="4"/>
       <c r="N12" s="8"/>
       <c r="O12" s="24"/>
@@ -991,7 +1143,7 @@
       <c r="I13" s="24"/>
       <c r="J13" s="17"/>
       <c r="K13" s="14"/>
-      <c r="L13" s="20"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="4"/>
       <c r="N13" s="8"/>
       <c r="O13" s="24"/>
@@ -1010,7 +1162,7 @@
       <c r="I14" s="24"/>
       <c r="J14" s="17"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="20"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="4"/>
       <c r="N14" s="8"/>
       <c r="O14" s="24"/>
@@ -1029,7 +1181,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="17"/>
       <c r="K15" s="14"/>
-      <c r="L15" s="20"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="4"/>
       <c r="N15" s="8"/>
       <c r="O15" s="24"/>
@@ -1048,7 +1200,7 @@
       <c r="I16" s="24"/>
       <c r="J16" s="17"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="20"/>
+      <c r="L16" s="19"/>
       <c r="M16" s="4"/>
       <c r="N16" s="8"/>
       <c r="O16" s="24"/>
@@ -1067,7 +1219,7 @@
       <c r="I17" s="24"/>
       <c r="J17" s="17"/>
       <c r="K17" s="14"/>
-      <c r="L17" s="20"/>
+      <c r="L17" s="19"/>
       <c r="M17" s="4"/>
       <c r="N17" s="8"/>
       <c r="O17" s="24"/>
@@ -1086,7 +1238,7 @@
       <c r="I18" s="24"/>
       <c r="J18" s="17"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="20"/>
+      <c r="L18" s="19"/>
       <c r="M18" s="4"/>
       <c r="N18" s="8"/>
       <c r="O18" s="24"/>
@@ -1105,7 +1257,7 @@
       <c r="I19" s="24"/>
       <c r="J19" s="17"/>
       <c r="K19" s="14"/>
-      <c r="L19" s="20"/>
+      <c r="L19" s="19"/>
       <c r="M19" s="4"/>
       <c r="N19" s="8"/>
       <c r="O19" s="24"/>
@@ -1124,7 +1276,7 @@
       <c r="I20" s="24"/>
       <c r="J20" s="17"/>
       <c r="K20" s="14"/>
-      <c r="L20" s="20"/>
+      <c r="L20" s="19"/>
       <c r="M20" s="4"/>
       <c r="N20" s="8"/>
       <c r="O20" s="24"/>
@@ -1143,7 +1295,7 @@
       <c r="I21" s="24"/>
       <c r="J21" s="17"/>
       <c r="K21" s="14"/>
-      <c r="L21" s="20"/>
+      <c r="L21" s="19"/>
       <c r="M21" s="4"/>
       <c r="N21" s="8"/>
       <c r="O21" s="24"/>
@@ -1162,7 +1314,7 @@
       <c r="I22" s="24"/>
       <c r="J22" s="17"/>
       <c r="K22" s="14"/>
-      <c r="L22" s="20"/>
+      <c r="L22" s="19"/>
       <c r="M22" s="4"/>
       <c r="N22" s="8"/>
       <c r="O22" s="24"/>
@@ -1181,7 +1333,7 @@
       <c r="I23" s="24"/>
       <c r="J23" s="17"/>
       <c r="K23" s="14"/>
-      <c r="L23" s="20"/>
+      <c r="L23" s="19"/>
       <c r="M23" s="4"/>
       <c r="N23" s="8"/>
       <c r="O23" s="24"/>
@@ -1200,7 +1352,7 @@
       <c r="I24" s="24"/>
       <c r="J24" s="17"/>
       <c r="K24" s="14"/>
-      <c r="L24" s="20"/>
+      <c r="L24" s="19"/>
       <c r="M24" s="4"/>
       <c r="N24" s="8"/>
       <c r="O24" s="24"/>
@@ -1219,7 +1371,7 @@
       <c r="I25" s="24"/>
       <c r="J25" s="17"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="20"/>
+      <c r="L25" s="19"/>
       <c r="M25" s="4"/>
       <c r="N25" s="8"/>
       <c r="O25" s="24"/>
@@ -1238,7 +1390,7 @@
       <c r="I26" s="24"/>
       <c r="J26" s="17"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="20"/>
+      <c r="L26" s="19"/>
       <c r="M26" s="4"/>
       <c r="N26" s="8"/>
       <c r="O26" s="24"/>
@@ -1257,7 +1409,7 @@
       <c r="I27" s="24"/>
       <c r="J27" s="17"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="20"/>
+      <c r="L27" s="19"/>
       <c r="M27" s="4"/>
       <c r="N27" s="8"/>
       <c r="O27" s="24"/>
@@ -1276,7 +1428,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="17"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="20"/>
+      <c r="L28" s="19"/>
       <c r="M28" s="4"/>
       <c r="N28" s="8"/>
       <c r="O28" s="24"/>
@@ -1295,7 +1447,7 @@
       <c r="I29" s="24"/>
       <c r="J29" s="17"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="20"/>
+      <c r="L29" s="19"/>
       <c r="M29" s="4"/>
       <c r="N29" s="8"/>
       <c r="O29" s="24"/>
@@ -1314,7 +1466,7 @@
       <c r="I30" s="24"/>
       <c r="J30" s="17"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="20"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="4"/>
       <c r="N30" s="8"/>
       <c r="O30" s="24"/>
@@ -1333,7 +1485,7 @@
       <c r="I31" s="24"/>
       <c r="J31" s="17"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="20"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="4"/>
       <c r="N31" s="8"/>
       <c r="O31" s="24"/>
@@ -1352,7 +1504,7 @@
       <c r="I32" s="24"/>
       <c r="J32" s="17"/>
       <c r="K32" s="14"/>
-      <c r="L32" s="20"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="4"/>
       <c r="N32" s="8"/>
       <c r="O32" s="24"/>
@@ -1371,7 +1523,7 @@
       <c r="I33" s="24"/>
       <c r="J33" s="17"/>
       <c r="K33" s="14"/>
-      <c r="L33" s="20"/>
+      <c r="L33" s="19"/>
       <c r="M33" s="4"/>
       <c r="N33" s="8"/>
       <c r="O33" s="24"/>
@@ -1390,7 +1542,7 @@
       <c r="I34" s="24"/>
       <c r="J34" s="17"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="20"/>
+      <c r="L34" s="19"/>
       <c r="M34" s="4"/>
       <c r="N34" s="8"/>
       <c r="O34" s="24"/>
@@ -1409,7 +1561,7 @@
       <c r="I35" s="24"/>
       <c r="J35" s="17"/>
       <c r="K35" s="14"/>
-      <c r="L35" s="20"/>
+      <c r="L35" s="19"/>
       <c r="M35" s="4"/>
       <c r="N35" s="8"/>
       <c r="O35" s="24"/>
@@ -1428,7 +1580,7 @@
       <c r="I36" s="24"/>
       <c r="J36" s="17"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="20"/>
+      <c r="L36" s="19"/>
       <c r="M36" s="4"/>
       <c r="N36" s="8"/>
       <c r="O36" s="24"/>
@@ -1447,7 +1599,7 @@
       <c r="I37" s="24"/>
       <c r="J37" s="17"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="20"/>
+      <c r="L37" s="19"/>
       <c r="M37" s="4"/>
       <c r="N37" s="8"/>
       <c r="O37" s="24"/>
@@ -1466,7 +1618,7 @@
       <c r="I38" s="24"/>
       <c r="J38" s="17"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="20"/>
+      <c r="L38" s="19"/>
       <c r="M38" s="4"/>
       <c r="N38" s="8"/>
       <c r="O38" s="24"/>
@@ -1485,7 +1637,7 @@
       <c r="I39" s="24"/>
       <c r="J39" s="17"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="20"/>
+      <c r="L39" s="19"/>
       <c r="M39" s="4"/>
       <c r="N39" s="8"/>
       <c r="O39" s="24"/>
@@ -1504,7 +1656,7 @@
       <c r="I40" s="24"/>
       <c r="J40" s="17"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="20"/>
+      <c r="L40" s="19"/>
       <c r="M40" s="4"/>
       <c r="N40" s="8"/>
       <c r="O40" s="24"/>
@@ -1523,7 +1675,7 @@
       <c r="I41" s="24"/>
       <c r="J41" s="17"/>
       <c r="K41" s="14"/>
-      <c r="L41" s="20"/>
+      <c r="L41" s="19"/>
       <c r="M41" s="4"/>
       <c r="N41" s="8"/>
       <c r="O41" s="24"/>

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -102,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +118,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,16 +350,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -361,15 +373,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,32 +673,32 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="30"/>
+    <col min="1" max="3" width="9.140625" style="38"/>
     <col min="4" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="9.140625" style="21"/>
     <col min="7" max="8" width="9.140625" style="5"/>
-    <col min="9" max="9" width="9.140625" style="25"/>
+    <col min="9" max="9" width="9.140625" style="33"/>
     <col min="10" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="9.140625" style="21"/>
     <col min="13" max="14" width="9.140625" style="5"/>
-    <col min="15" max="15" width="9.140625" style="25"/>
-    <col min="16" max="16" width="10.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="33"/>
+    <col min="16" max="16" width="10.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" style="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -696,7 +716,7 @@
       <c r="H1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="30" t="s">
         <v>18</v>
       </c>
       <c r="J1" s="15" t="s">
@@ -714,10 +734,10 @@
       <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="26" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="22" t="s">
@@ -725,13 +745,13 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="28">
+      <c r="A2" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="36" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="10">
@@ -750,7 +770,7 @@
       <c r="H2" s="7">
         <v>23</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="31">
         <f>G2-H2</f>
         <v>6</v>
       </c>
@@ -770,11 +790,11 @@
       <c r="N2" s="7">
         <v>24</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="31">
         <f>N2-M2</f>
         <v>-2</v>
       </c>
-      <c r="P2" s="19">
+      <c r="P2" s="27">
         <f>L2-F2</f>
         <v>-11</v>
       </c>
@@ -784,13 +804,13 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3" s="37">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="37" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="11"/>
@@ -801,7 +821,7 @@
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="23">
+      <c r="I3" s="31">
         <f t="shared" ref="I3:I10" si="1">G3-H3</f>
         <v>0</v>
       </c>
@@ -821,11 +841,11 @@
       <c r="N3" s="8">
         <v>25</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="31">
         <f t="shared" ref="O3:O10" si="3">N3-M3</f>
         <v>4</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="27">
         <f t="shared" ref="P3:P10" si="4">L3-F3</f>
         <v>1</v>
       </c>
@@ -835,9 +855,9 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
       <c r="D4" s="11"/>
       <c r="E4" s="14"/>
       <c r="F4" s="19">
@@ -846,7 +866,7 @@
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="23">
+      <c r="I4" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -858,11 +878,11 @@
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="23">
+      <c r="O4" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -872,9 +892,9 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="11"/>
       <c r="E5" s="14"/>
       <c r="F5" s="19">
@@ -883,7 +903,7 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="23">
+      <c r="I5" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -895,11 +915,11 @@
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="23">
+      <c r="O5" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P5" s="19">
+      <c r="P5" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -909,9 +929,9 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="11"/>
       <c r="E6" s="14"/>
       <c r="F6" s="19">
@@ -920,7 +940,7 @@
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="23">
+      <c r="I6" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -932,11 +952,11 @@
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="23">
+      <c r="O6" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P6" s="19">
+      <c r="P6" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -946,9 +966,9 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="11"/>
       <c r="E7" s="14"/>
       <c r="F7" s="19">
@@ -957,7 +977,7 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="23">
+      <c r="I7" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -969,11 +989,11 @@
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="8"/>
-      <c r="O7" s="23">
+      <c r="O7" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P7" s="19">
+      <c r="P7" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -983,9 +1003,9 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11"/>
       <c r="E8" s="14"/>
       <c r="F8" s="19">
@@ -994,7 +1014,7 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="23">
+      <c r="I8" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1006,11 +1026,11 @@
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="23">
+      <c r="O8" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P8" s="19">
+      <c r="P8" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1020,9 +1040,9 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="11"/>
       <c r="E9" s="14"/>
       <c r="F9" s="19">
@@ -1031,7 +1051,7 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="23">
+      <c r="I9" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1043,11 +1063,11 @@
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="23">
+      <c r="O9" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P9" s="19">
+      <c r="P9" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1057,9 +1077,9 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="11"/>
       <c r="E10" s="14"/>
       <c r="F10" s="19">
@@ -1068,7 +1088,7 @@
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="23">
+      <c r="I10" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1080,11 +1100,11 @@
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="23">
+      <c r="O10" s="31">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P10" s="19">
+      <c r="P10" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -1094,2606 +1114,2606 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11"/>
       <c r="E11" s="14"/>
       <c r="F11" s="20"/>
       <c r="G11" s="4"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="17"/>
       <c r="K11" s="14"/>
       <c r="L11" s="19"/>
       <c r="M11" s="4"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="20"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="28"/>
       <c r="Q11" s="24"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="11"/>
       <c r="E12" s="14"/>
       <c r="F12" s="20"/>
       <c r="G12" s="4"/>
       <c r="H12" s="8"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="17"/>
       <c r="K12" s="14"/>
       <c r="L12" s="19"/>
       <c r="M12" s="4"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="20"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="28"/>
       <c r="Q12" s="24"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="11"/>
       <c r="E13" s="14"/>
       <c r="F13" s="20"/>
       <c r="G13" s="4"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="24"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="17"/>
       <c r="K13" s="14"/>
       <c r="L13" s="19"/>
       <c r="M13" s="4"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="20"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="28"/>
       <c r="Q13" s="24"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="11"/>
       <c r="E14" s="14"/>
       <c r="F14" s="20"/>
       <c r="G14" s="4"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="24"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="17"/>
       <c r="K14" s="14"/>
       <c r="L14" s="19"/>
       <c r="M14" s="4"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="20"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="28"/>
       <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="11"/>
       <c r="E15" s="14"/>
       <c r="F15" s="20"/>
       <c r="G15" s="4"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="17"/>
       <c r="K15" s="14"/>
       <c r="L15" s="19"/>
       <c r="M15" s="4"/>
       <c r="N15" s="8"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="20"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="28"/>
       <c r="Q15" s="24"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="11"/>
       <c r="E16" s="14"/>
       <c r="F16" s="20"/>
       <c r="G16" s="4"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="17"/>
       <c r="K16" s="14"/>
       <c r="L16" s="19"/>
       <c r="M16" s="4"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="20"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="24"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="11"/>
       <c r="E17" s="14"/>
       <c r="F17" s="20"/>
       <c r="G17" s="4"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="17"/>
       <c r="K17" s="14"/>
       <c r="L17" s="19"/>
       <c r="M17" s="4"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="20"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="28"/>
       <c r="Q17" s="24"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="11"/>
       <c r="E18" s="14"/>
       <c r="F18" s="20"/>
       <c r="G18" s="4"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="32"/>
       <c r="J18" s="17"/>
       <c r="K18" s="14"/>
       <c r="L18" s="19"/>
       <c r="M18" s="4"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="20"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="28"/>
       <c r="Q18" s="24"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="11"/>
       <c r="E19" s="14"/>
       <c r="F19" s="20"/>
       <c r="G19" s="4"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="32"/>
       <c r="J19" s="17"/>
       <c r="K19" s="14"/>
       <c r="L19" s="19"/>
       <c r="M19" s="4"/>
       <c r="N19" s="8"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="20"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="28"/>
       <c r="Q19" s="24"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="11"/>
       <c r="E20" s="14"/>
       <c r="F20" s="20"/>
       <c r="G20" s="4"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="32"/>
       <c r="J20" s="17"/>
       <c r="K20" s="14"/>
       <c r="L20" s="19"/>
       <c r="M20" s="4"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="20"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="28"/>
       <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="11"/>
       <c r="E21" s="14"/>
       <c r="F21" s="20"/>
       <c r="G21" s="4"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="32"/>
       <c r="J21" s="17"/>
       <c r="K21" s="14"/>
       <c r="L21" s="19"/>
       <c r="M21" s="4"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="20"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="28"/>
       <c r="Q21" s="24"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="11"/>
       <c r="E22" s="14"/>
       <c r="F22" s="20"/>
       <c r="G22" s="4"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="32"/>
       <c r="J22" s="17"/>
       <c r="K22" s="14"/>
       <c r="L22" s="19"/>
       <c r="M22" s="4"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="20"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="28"/>
       <c r="Q22" s="24"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="11"/>
       <c r="E23" s="14"/>
       <c r="F23" s="20"/>
       <c r="G23" s="4"/>
       <c r="H23" s="8"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="32"/>
       <c r="J23" s="17"/>
       <c r="K23" s="14"/>
       <c r="L23" s="19"/>
       <c r="M23" s="4"/>
       <c r="N23" s="8"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="20"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="28"/>
       <c r="Q23" s="24"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="11"/>
       <c r="E24" s="14"/>
       <c r="F24" s="20"/>
       <c r="G24" s="4"/>
       <c r="H24" s="8"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="32"/>
       <c r="J24" s="17"/>
       <c r="K24" s="14"/>
       <c r="L24" s="19"/>
       <c r="M24" s="4"/>
       <c r="N24" s="8"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="20"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="28"/>
       <c r="Q24" s="24"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="11"/>
       <c r="E25" s="14"/>
       <c r="F25" s="20"/>
       <c r="G25" s="4"/>
       <c r="H25" s="8"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="32"/>
       <c r="J25" s="17"/>
       <c r="K25" s="14"/>
       <c r="L25" s="19"/>
       <c r="M25" s="4"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="20"/>
+      <c r="O25" s="32"/>
+      <c r="P25" s="28"/>
       <c r="Q25" s="24"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="11"/>
       <c r="E26" s="14"/>
       <c r="F26" s="20"/>
       <c r="G26" s="4"/>
       <c r="H26" s="8"/>
-      <c r="I26" s="24"/>
+      <c r="I26" s="32"/>
       <c r="J26" s="17"/>
       <c r="K26" s="14"/>
       <c r="L26" s="19"/>
       <c r="M26" s="4"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="20"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="28"/>
       <c r="Q26" s="24"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="11"/>
       <c r="E27" s="14"/>
       <c r="F27" s="20"/>
       <c r="G27" s="4"/>
       <c r="H27" s="8"/>
-      <c r="I27" s="24"/>
+      <c r="I27" s="32"/>
       <c r="J27" s="17"/>
       <c r="K27" s="14"/>
       <c r="L27" s="19"/>
       <c r="M27" s="4"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="20"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="28"/>
       <c r="Q27" s="24"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="11"/>
       <c r="E28" s="14"/>
       <c r="F28" s="20"/>
       <c r="G28" s="4"/>
       <c r="H28" s="8"/>
-      <c r="I28" s="24"/>
+      <c r="I28" s="32"/>
       <c r="J28" s="17"/>
       <c r="K28" s="14"/>
       <c r="L28" s="19"/>
       <c r="M28" s="4"/>
       <c r="N28" s="8"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="20"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="28"/>
       <c r="Q28" s="24"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="11"/>
       <c r="E29" s="14"/>
       <c r="F29" s="20"/>
       <c r="G29" s="4"/>
       <c r="H29" s="8"/>
-      <c r="I29" s="24"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="17"/>
       <c r="K29" s="14"/>
       <c r="L29" s="19"/>
       <c r="M29" s="4"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="20"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="28"/>
       <c r="Q29" s="24"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="11"/>
       <c r="E30" s="14"/>
       <c r="F30" s="20"/>
       <c r="G30" s="4"/>
       <c r="H30" s="8"/>
-      <c r="I30" s="24"/>
+      <c r="I30" s="32"/>
       <c r="J30" s="17"/>
       <c r="K30" s="14"/>
       <c r="L30" s="19"/>
       <c r="M30" s="4"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="20"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="28"/>
       <c r="Q30" s="24"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="11"/>
       <c r="E31" s="14"/>
       <c r="F31" s="20"/>
       <c r="G31" s="4"/>
       <c r="H31" s="8"/>
-      <c r="I31" s="24"/>
+      <c r="I31" s="32"/>
       <c r="J31" s="17"/>
       <c r="K31" s="14"/>
       <c r="L31" s="19"/>
       <c r="M31" s="4"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="20"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="28"/>
       <c r="Q31" s="24"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="11"/>
       <c r="E32" s="14"/>
       <c r="F32" s="20"/>
       <c r="G32" s="4"/>
       <c r="H32" s="8"/>
-      <c r="I32" s="24"/>
+      <c r="I32" s="32"/>
       <c r="J32" s="17"/>
       <c r="K32" s="14"/>
       <c r="L32" s="19"/>
       <c r="M32" s="4"/>
       <c r="N32" s="8"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="20"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="28"/>
       <c r="Q32" s="24"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="11"/>
       <c r="E33" s="14"/>
       <c r="F33" s="20"/>
       <c r="G33" s="4"/>
       <c r="H33" s="8"/>
-      <c r="I33" s="24"/>
+      <c r="I33" s="32"/>
       <c r="J33" s="17"/>
       <c r="K33" s="14"/>
       <c r="L33" s="19"/>
       <c r="M33" s="4"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="20"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="28"/>
       <c r="Q33" s="24"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="11"/>
       <c r="E34" s="14"/>
       <c r="F34" s="20"/>
       <c r="G34" s="4"/>
       <c r="H34" s="8"/>
-      <c r="I34" s="24"/>
+      <c r="I34" s="32"/>
       <c r="J34" s="17"/>
       <c r="K34" s="14"/>
       <c r="L34" s="19"/>
       <c r="M34" s="4"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="20"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="28"/>
       <c r="Q34" s="24"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="11"/>
       <c r="E35" s="14"/>
       <c r="F35" s="20"/>
       <c r="G35" s="4"/>
       <c r="H35" s="8"/>
-      <c r="I35" s="24"/>
+      <c r="I35" s="32"/>
       <c r="J35" s="17"/>
       <c r="K35" s="14"/>
       <c r="L35" s="19"/>
       <c r="M35" s="4"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="20"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="28"/>
       <c r="Q35" s="24"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="11"/>
       <c r="E36" s="14"/>
       <c r="F36" s="20"/>
       <c r="G36" s="4"/>
       <c r="H36" s="8"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="17"/>
       <c r="K36" s="14"/>
       <c r="L36" s="19"/>
       <c r="M36" s="4"/>
       <c r="N36" s="8"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="20"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="28"/>
       <c r="Q36" s="24"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="11"/>
       <c r="E37" s="14"/>
       <c r="F37" s="20"/>
       <c r="G37" s="4"/>
       <c r="H37" s="8"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="17"/>
       <c r="K37" s="14"/>
       <c r="L37" s="19"/>
       <c r="M37" s="4"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="20"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="28"/>
       <c r="Q37" s="24"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="11"/>
       <c r="E38" s="14"/>
       <c r="F38" s="20"/>
       <c r="G38" s="4"/>
       <c r="H38" s="8"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="17"/>
       <c r="K38" s="14"/>
       <c r="L38" s="19"/>
       <c r="M38" s="4"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="20"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="28"/>
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="11"/>
       <c r="E39" s="14"/>
       <c r="F39" s="20"/>
       <c r="G39" s="4"/>
       <c r="H39" s="8"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="17"/>
       <c r="K39" s="14"/>
       <c r="L39" s="19"/>
       <c r="M39" s="4"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="20"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="28"/>
       <c r="Q39" s="24"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="11"/>
       <c r="E40" s="14"/>
       <c r="F40" s="20"/>
       <c r="G40" s="4"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="24"/>
+      <c r="I40" s="32"/>
       <c r="J40" s="17"/>
       <c r="K40" s="14"/>
       <c r="L40" s="19"/>
       <c r="M40" s="4"/>
       <c r="N40" s="8"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="20"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="28"/>
       <c r="Q40" s="24"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="11"/>
       <c r="E41" s="14"/>
       <c r="F41" s="20"/>
       <c r="G41" s="4"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="17"/>
       <c r="K41" s="14"/>
       <c r="L41" s="19"/>
       <c r="M41" s="4"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="20"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="28"/>
       <c r="Q41" s="24"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
       <c r="D42" s="11"/>
       <c r="E42" s="14"/>
       <c r="F42" s="20"/>
       <c r="G42" s="4"/>
       <c r="H42" s="8"/>
-      <c r="I42" s="24"/>
+      <c r="I42" s="32"/>
       <c r="J42" s="17"/>
       <c r="K42" s="14"/>
       <c r="L42" s="20"/>
       <c r="M42" s="4"/>
       <c r="N42" s="8"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="20"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="28"/>
       <c r="Q42" s="24"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
       <c r="D43" s="11"/>
       <c r="E43" s="14"/>
       <c r="F43" s="20"/>
       <c r="G43" s="4"/>
       <c r="H43" s="8"/>
-      <c r="I43" s="24"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="17"/>
       <c r="K43" s="14"/>
       <c r="L43" s="20"/>
       <c r="M43" s="4"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="20"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="28"/>
       <c r="Q43" s="24"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
       <c r="D44" s="11"/>
       <c r="E44" s="14"/>
       <c r="F44" s="20"/>
       <c r="G44" s="4"/>
       <c r="H44" s="8"/>
-      <c r="I44" s="24"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="17"/>
       <c r="K44" s="14"/>
       <c r="L44" s="20"/>
       <c r="M44" s="4"/>
       <c r="N44" s="8"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="20"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="28"/>
       <c r="Q44" s="24"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="11"/>
       <c r="E45" s="14"/>
       <c r="F45" s="20"/>
       <c r="G45" s="4"/>
       <c r="H45" s="8"/>
-      <c r="I45" s="24"/>
+      <c r="I45" s="32"/>
       <c r="J45" s="17"/>
       <c r="K45" s="14"/>
       <c r="L45" s="20"/>
       <c r="M45" s="4"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="20"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="28"/>
       <c r="Q45" s="24"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="11"/>
       <c r="E46" s="14"/>
       <c r="F46" s="20"/>
       <c r="G46" s="4"/>
       <c r="H46" s="8"/>
-      <c r="I46" s="24"/>
+      <c r="I46" s="32"/>
       <c r="J46" s="17"/>
       <c r="K46" s="14"/>
       <c r="L46" s="20"/>
       <c r="M46" s="4"/>
       <c r="N46" s="8"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="20"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="28"/>
       <c r="Q46" s="24"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="11"/>
       <c r="E47" s="14"/>
       <c r="F47" s="20"/>
       <c r="G47" s="4"/>
       <c r="H47" s="8"/>
-      <c r="I47" s="24"/>
+      <c r="I47" s="32"/>
       <c r="J47" s="17"/>
       <c r="K47" s="14"/>
       <c r="L47" s="20"/>
       <c r="M47" s="4"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="20"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="28"/>
       <c r="Q47" s="24"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="11"/>
       <c r="E48" s="14"/>
       <c r="F48" s="20"/>
       <c r="G48" s="4"/>
       <c r="H48" s="8"/>
-      <c r="I48" s="24"/>
+      <c r="I48" s="32"/>
       <c r="J48" s="17"/>
       <c r="K48" s="14"/>
       <c r="L48" s="20"/>
       <c r="M48" s="4"/>
       <c r="N48" s="8"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="20"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="28"/>
       <c r="Q48" s="24"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="11"/>
       <c r="E49" s="14"/>
       <c r="F49" s="20"/>
       <c r="G49" s="4"/>
       <c r="H49" s="8"/>
-      <c r="I49" s="24"/>
+      <c r="I49" s="32"/>
       <c r="J49" s="17"/>
       <c r="K49" s="14"/>
       <c r="L49" s="20"/>
       <c r="M49" s="4"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="20"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="28"/>
       <c r="Q49" s="24"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="11"/>
       <c r="E50" s="14"/>
       <c r="F50" s="20"/>
       <c r="G50" s="4"/>
       <c r="H50" s="8"/>
-      <c r="I50" s="24"/>
+      <c r="I50" s="32"/>
       <c r="J50" s="17"/>
       <c r="K50" s="14"/>
       <c r="L50" s="20"/>
       <c r="M50" s="4"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="20"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="28"/>
       <c r="Q50" s="24"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="11"/>
       <c r="E51" s="14"/>
       <c r="F51" s="20"/>
       <c r="G51" s="4"/>
       <c r="H51" s="8"/>
-      <c r="I51" s="24"/>
+      <c r="I51" s="32"/>
       <c r="J51" s="17"/>
       <c r="K51" s="14"/>
       <c r="L51" s="20"/>
       <c r="M51" s="4"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="20"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="28"/>
       <c r="Q51" s="24"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="11"/>
       <c r="E52" s="14"/>
       <c r="F52" s="20"/>
       <c r="G52" s="4"/>
       <c r="H52" s="8"/>
-      <c r="I52" s="24"/>
+      <c r="I52" s="32"/>
       <c r="J52" s="17"/>
       <c r="K52" s="14"/>
       <c r="L52" s="20"/>
       <c r="M52" s="4"/>
       <c r="N52" s="8"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="20"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="28"/>
       <c r="Q52" s="24"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
-      <c r="C53" s="29"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="11"/>
       <c r="E53" s="14"/>
       <c r="F53" s="20"/>
       <c r="G53" s="4"/>
       <c r="H53" s="8"/>
-      <c r="I53" s="24"/>
+      <c r="I53" s="32"/>
       <c r="J53" s="17"/>
       <c r="K53" s="14"/>
       <c r="L53" s="20"/>
       <c r="M53" s="4"/>
       <c r="N53" s="8"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="20"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="28"/>
       <c r="Q53" s="24"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
-      <c r="C54" s="29"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="11"/>
       <c r="E54" s="14"/>
       <c r="F54" s="20"/>
       <c r="G54" s="4"/>
       <c r="H54" s="8"/>
-      <c r="I54" s="24"/>
+      <c r="I54" s="32"/>
       <c r="J54" s="17"/>
       <c r="K54" s="14"/>
       <c r="L54" s="20"/>
       <c r="M54" s="4"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="20"/>
+      <c r="O54" s="32"/>
+      <c r="P54" s="28"/>
       <c r="Q54" s="24"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
       <c r="D55" s="11"/>
       <c r="E55" s="14"/>
       <c r="F55" s="20"/>
       <c r="G55" s="4"/>
       <c r="H55" s="8"/>
-      <c r="I55" s="24"/>
+      <c r="I55" s="32"/>
       <c r="J55" s="17"/>
       <c r="K55" s="14"/>
       <c r="L55" s="20"/>
       <c r="M55" s="4"/>
       <c r="N55" s="8"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="20"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="28"/>
       <c r="Q55" s="24"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
       <c r="D56" s="11"/>
       <c r="E56" s="14"/>
       <c r="F56" s="20"/>
       <c r="G56" s="4"/>
       <c r="H56" s="8"/>
-      <c r="I56" s="24"/>
+      <c r="I56" s="32"/>
       <c r="J56" s="17"/>
       <c r="K56" s="14"/>
       <c r="L56" s="20"/>
       <c r="M56" s="4"/>
       <c r="N56" s="8"/>
-      <c r="O56" s="24"/>
-      <c r="P56" s="20"/>
+      <c r="O56" s="32"/>
+      <c r="P56" s="28"/>
       <c r="Q56" s="24"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="37"/>
       <c r="D57" s="11"/>
       <c r="E57" s="14"/>
       <c r="F57" s="20"/>
       <c r="G57" s="4"/>
       <c r="H57" s="8"/>
-      <c r="I57" s="24"/>
+      <c r="I57" s="32"/>
       <c r="J57" s="17"/>
       <c r="K57" s="14"/>
       <c r="L57" s="20"/>
       <c r="M57" s="4"/>
       <c r="N57" s="8"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="20"/>
+      <c r="O57" s="32"/>
+      <c r="P57" s="28"/>
       <c r="Q57" s="24"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="37"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="37"/>
       <c r="D58" s="11"/>
       <c r="E58" s="14"/>
       <c r="F58" s="20"/>
       <c r="G58" s="4"/>
       <c r="H58" s="8"/>
-      <c r="I58" s="24"/>
+      <c r="I58" s="32"/>
       <c r="J58" s="17"/>
       <c r="K58" s="14"/>
       <c r="L58" s="20"/>
       <c r="M58" s="4"/>
       <c r="N58" s="8"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="20"/>
+      <c r="O58" s="32"/>
+      <c r="P58" s="28"/>
       <c r="Q58" s="24"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
-      <c r="C59" s="29"/>
+      <c r="A59" s="37"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="11"/>
       <c r="E59" s="14"/>
       <c r="F59" s="20"/>
       <c r="G59" s="4"/>
       <c r="H59" s="8"/>
-      <c r="I59" s="24"/>
+      <c r="I59" s="32"/>
       <c r="J59" s="17"/>
       <c r="K59" s="14"/>
       <c r="L59" s="20"/>
       <c r="M59" s="4"/>
       <c r="N59" s="8"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="20"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="28"/>
       <c r="Q59" s="24"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="29"/>
-      <c r="C60" s="29"/>
+      <c r="A60" s="37"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="11"/>
       <c r="E60" s="14"/>
       <c r="F60" s="20"/>
       <c r="G60" s="4"/>
       <c r="H60" s="8"/>
-      <c r="I60" s="24"/>
+      <c r="I60" s="32"/>
       <c r="J60" s="17"/>
       <c r="K60" s="14"/>
       <c r="L60" s="20"/>
       <c r="M60" s="4"/>
       <c r="N60" s="8"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="20"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="28"/>
       <c r="Q60" s="24"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
+      <c r="A61" s="37"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="37"/>
       <c r="D61" s="11"/>
       <c r="E61" s="14"/>
       <c r="F61" s="20"/>
       <c r="G61" s="4"/>
       <c r="H61" s="8"/>
-      <c r="I61" s="24"/>
+      <c r="I61" s="32"/>
       <c r="J61" s="17"/>
       <c r="K61" s="14"/>
       <c r="L61" s="20"/>
       <c r="M61" s="4"/>
       <c r="N61" s="8"/>
-      <c r="O61" s="24"/>
-      <c r="P61" s="20"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="28"/>
       <c r="Q61" s="24"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
+      <c r="A62" s="37"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="37"/>
       <c r="D62" s="11"/>
       <c r="E62" s="14"/>
       <c r="F62" s="20"/>
       <c r="G62" s="4"/>
       <c r="H62" s="8"/>
-      <c r="I62" s="24"/>
+      <c r="I62" s="32"/>
       <c r="J62" s="17"/>
       <c r="K62" s="14"/>
       <c r="L62" s="20"/>
       <c r="M62" s="4"/>
       <c r="N62" s="8"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="20"/>
+      <c r="O62" s="32"/>
+      <c r="P62" s="28"/>
       <c r="Q62" s="24"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="29"/>
-      <c r="C63" s="29"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="37"/>
       <c r="D63" s="11"/>
       <c r="E63" s="14"/>
       <c r="F63" s="20"/>
       <c r="G63" s="4"/>
       <c r="H63" s="8"/>
-      <c r="I63" s="24"/>
+      <c r="I63" s="32"/>
       <c r="J63" s="17"/>
       <c r="K63" s="14"/>
       <c r="L63" s="20"/>
       <c r="M63" s="4"/>
       <c r="N63" s="8"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="20"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="28"/>
       <c r="Q63" s="24"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="29"/>
-      <c r="C64" s="29"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="37"/>
       <c r="D64" s="11"/>
       <c r="E64" s="14"/>
       <c r="F64" s="20"/>
       <c r="G64" s="4"/>
       <c r="H64" s="8"/>
-      <c r="I64" s="24"/>
+      <c r="I64" s="32"/>
       <c r="J64" s="17"/>
       <c r="K64" s="14"/>
       <c r="L64" s="20"/>
       <c r="M64" s="4"/>
       <c r="N64" s="8"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="20"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="28"/>
       <c r="Q64" s="24"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="29"/>
-      <c r="C65" s="29"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="11"/>
       <c r="E65" s="14"/>
       <c r="F65" s="20"/>
       <c r="G65" s="4"/>
       <c r="H65" s="8"/>
-      <c r="I65" s="24"/>
+      <c r="I65" s="32"/>
       <c r="J65" s="17"/>
       <c r="K65" s="14"/>
       <c r="L65" s="20"/>
       <c r="M65" s="4"/>
       <c r="N65" s="8"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="20"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="28"/>
       <c r="Q65" s="24"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="29"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="11"/>
       <c r="E66" s="14"/>
       <c r="F66" s="20"/>
       <c r="G66" s="4"/>
       <c r="H66" s="8"/>
-      <c r="I66" s="24"/>
+      <c r="I66" s="32"/>
       <c r="J66" s="17"/>
       <c r="K66" s="14"/>
       <c r="L66" s="20"/>
       <c r="M66" s="4"/>
       <c r="N66" s="8"/>
-      <c r="O66" s="24"/>
-      <c r="P66" s="20"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="28"/>
       <c r="Q66" s="24"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="29"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="11"/>
       <c r="E67" s="14"/>
       <c r="F67" s="20"/>
       <c r="G67" s="4"/>
       <c r="H67" s="8"/>
-      <c r="I67" s="24"/>
+      <c r="I67" s="32"/>
       <c r="J67" s="17"/>
       <c r="K67" s="14"/>
       <c r="L67" s="20"/>
       <c r="M67" s="4"/>
       <c r="N67" s="8"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="20"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="28"/>
       <c r="Q67" s="24"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="29"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="11"/>
       <c r="E68" s="14"/>
       <c r="F68" s="20"/>
       <c r="G68" s="4"/>
       <c r="H68" s="8"/>
-      <c r="I68" s="24"/>
+      <c r="I68" s="32"/>
       <c r="J68" s="17"/>
       <c r="K68" s="14"/>
       <c r="L68" s="20"/>
       <c r="M68" s="4"/>
       <c r="N68" s="8"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="20"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="28"/>
       <c r="Q68" s="24"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="29"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="29"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="11"/>
       <c r="E69" s="14"/>
       <c r="F69" s="20"/>
       <c r="G69" s="4"/>
       <c r="H69" s="8"/>
-      <c r="I69" s="24"/>
+      <c r="I69" s="32"/>
       <c r="J69" s="17"/>
       <c r="K69" s="14"/>
       <c r="L69" s="20"/>
       <c r="M69" s="4"/>
       <c r="N69" s="8"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="20"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="28"/>
       <c r="Q69" s="24"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="29"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="29"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="11"/>
       <c r="E70" s="14"/>
       <c r="F70" s="20"/>
       <c r="G70" s="4"/>
       <c r="H70" s="8"/>
-      <c r="I70" s="24"/>
+      <c r="I70" s="32"/>
       <c r="J70" s="17"/>
       <c r="K70" s="14"/>
       <c r="L70" s="20"/>
       <c r="M70" s="4"/>
       <c r="N70" s="8"/>
-      <c r="O70" s="24"/>
-      <c r="P70" s="20"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="28"/>
       <c r="Q70" s="24"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="29"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="29"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="11"/>
       <c r="E71" s="14"/>
       <c r="F71" s="20"/>
       <c r="G71" s="4"/>
       <c r="H71" s="8"/>
-      <c r="I71" s="24"/>
+      <c r="I71" s="32"/>
       <c r="J71" s="17"/>
       <c r="K71" s="14"/>
       <c r="L71" s="20"/>
       <c r="M71" s="4"/>
       <c r="N71" s="8"/>
-      <c r="O71" s="24"/>
-      <c r="P71" s="20"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="28"/>
       <c r="Q71" s="24"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="29"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="29"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
       <c r="D72" s="11"/>
       <c r="E72" s="14"/>
       <c r="F72" s="20"/>
       <c r="G72" s="4"/>
       <c r="H72" s="8"/>
-      <c r="I72" s="24"/>
+      <c r="I72" s="32"/>
       <c r="J72" s="17"/>
       <c r="K72" s="14"/>
       <c r="L72" s="20"/>
       <c r="M72" s="4"/>
       <c r="N72" s="8"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="20"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="28"/>
       <c r="Q72" s="24"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="29"/>
-      <c r="B73" s="29"/>
-      <c r="C73" s="29"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="37"/>
       <c r="D73" s="11"/>
       <c r="E73" s="14"/>
       <c r="F73" s="20"/>
       <c r="G73" s="4"/>
       <c r="H73" s="8"/>
-      <c r="I73" s="24"/>
+      <c r="I73" s="32"/>
       <c r="J73" s="17"/>
       <c r="K73" s="14"/>
       <c r="L73" s="20"/>
       <c r="M73" s="4"/>
       <c r="N73" s="8"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="20"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="28"/>
       <c r="Q73" s="24"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="29"/>
-      <c r="B74" s="29"/>
-      <c r="C74" s="29"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="37"/>
+      <c r="C74" s="37"/>
       <c r="D74" s="11"/>
       <c r="E74" s="14"/>
       <c r="F74" s="20"/>
       <c r="G74" s="4"/>
       <c r="H74" s="8"/>
-      <c r="I74" s="24"/>
+      <c r="I74" s="32"/>
       <c r="J74" s="17"/>
       <c r="K74" s="14"/>
       <c r="L74" s="20"/>
       <c r="M74" s="4"/>
       <c r="N74" s="8"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="20"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="28"/>
       <c r="Q74" s="24"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="29"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="29"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="37"/>
       <c r="D75" s="11"/>
       <c r="E75" s="14"/>
       <c r="F75" s="20"/>
       <c r="G75" s="4"/>
       <c r="H75" s="8"/>
-      <c r="I75" s="24"/>
+      <c r="I75" s="32"/>
       <c r="J75" s="17"/>
       <c r="K75" s="14"/>
       <c r="L75" s="20"/>
       <c r="M75" s="4"/>
       <c r="N75" s="8"/>
-      <c r="O75" s="24"/>
-      <c r="P75" s="20"/>
+      <c r="O75" s="32"/>
+      <c r="P75" s="28"/>
       <c r="Q75" s="24"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="29"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="29"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="37"/>
+      <c r="C76" s="37"/>
       <c r="D76" s="11"/>
       <c r="E76" s="14"/>
       <c r="F76" s="20"/>
       <c r="G76" s="4"/>
       <c r="H76" s="8"/>
-      <c r="I76" s="24"/>
+      <c r="I76" s="32"/>
       <c r="J76" s="17"/>
       <c r="K76" s="14"/>
       <c r="L76" s="20"/>
       <c r="M76" s="4"/>
       <c r="N76" s="8"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="20"/>
+      <c r="O76" s="32"/>
+      <c r="P76" s="28"/>
       <c r="Q76" s="24"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="29"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="29"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="37"/>
       <c r="D77" s="11"/>
       <c r="E77" s="14"/>
       <c r="F77" s="20"/>
       <c r="G77" s="4"/>
       <c r="H77" s="8"/>
-      <c r="I77" s="24"/>
+      <c r="I77" s="32"/>
       <c r="J77" s="17"/>
       <c r="K77" s="14"/>
       <c r="L77" s="20"/>
       <c r="M77" s="4"/>
       <c r="N77" s="8"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="20"/>
+      <c r="O77" s="32"/>
+      <c r="P77" s="28"/>
       <c r="Q77" s="24"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="29"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="29"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="37"/>
       <c r="D78" s="11"/>
       <c r="E78" s="14"/>
       <c r="F78" s="20"/>
       <c r="G78" s="4"/>
       <c r="H78" s="8"/>
-      <c r="I78" s="24"/>
+      <c r="I78" s="32"/>
       <c r="J78" s="17"/>
       <c r="K78" s="14"/>
       <c r="L78" s="20"/>
       <c r="M78" s="4"/>
       <c r="N78" s="8"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="20"/>
+      <c r="O78" s="32"/>
+      <c r="P78" s="28"/>
       <c r="Q78" s="24"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="29"/>
-      <c r="B79" s="29"/>
-      <c r="C79" s="29"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="37"/>
       <c r="D79" s="11"/>
       <c r="E79" s="14"/>
       <c r="F79" s="20"/>
       <c r="G79" s="4"/>
       <c r="H79" s="8"/>
-      <c r="I79" s="24"/>
+      <c r="I79" s="32"/>
       <c r="J79" s="17"/>
       <c r="K79" s="14"/>
       <c r="L79" s="20"/>
       <c r="M79" s="4"/>
       <c r="N79" s="8"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="20"/>
+      <c r="O79" s="32"/>
+      <c r="P79" s="28"/>
       <c r="Q79" s="24"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="29"/>
-      <c r="B80" s="29"/>
-      <c r="C80" s="29"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
       <c r="D80" s="11"/>
       <c r="E80" s="14"/>
       <c r="F80" s="20"/>
       <c r="G80" s="4"/>
       <c r="H80" s="8"/>
-      <c r="I80" s="24"/>
+      <c r="I80" s="32"/>
       <c r="J80" s="17"/>
       <c r="K80" s="14"/>
       <c r="L80" s="20"/>
       <c r="M80" s="4"/>
       <c r="N80" s="8"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="20"/>
+      <c r="O80" s="32"/>
+      <c r="P80" s="28"/>
       <c r="Q80" s="24"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="29"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="29"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
       <c r="D81" s="11"/>
       <c r="E81" s="14"/>
       <c r="F81" s="20"/>
       <c r="G81" s="4"/>
       <c r="H81" s="8"/>
-      <c r="I81" s="24"/>
+      <c r="I81" s="32"/>
       <c r="J81" s="17"/>
       <c r="K81" s="14"/>
       <c r="L81" s="20"/>
       <c r="M81" s="4"/>
       <c r="N81" s="8"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="20"/>
+      <c r="O81" s="32"/>
+      <c r="P81" s="28"/>
       <c r="Q81" s="24"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="29"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="29"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="37"/>
+      <c r="C82" s="37"/>
       <c r="D82" s="11"/>
       <c r="E82" s="14"/>
       <c r="F82" s="20"/>
       <c r="G82" s="4"/>
       <c r="H82" s="8"/>
-      <c r="I82" s="24"/>
+      <c r="I82" s="32"/>
       <c r="J82" s="17"/>
       <c r="K82" s="14"/>
       <c r="L82" s="20"/>
       <c r="M82" s="4"/>
       <c r="N82" s="8"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="20"/>
+      <c r="O82" s="32"/>
+      <c r="P82" s="28"/>
       <c r="Q82" s="24"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A83" s="29"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="29"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
       <c r="D83" s="11"/>
       <c r="E83" s="14"/>
       <c r="F83" s="20"/>
       <c r="G83" s="4"/>
       <c r="H83" s="8"/>
-      <c r="I83" s="24"/>
+      <c r="I83" s="32"/>
       <c r="J83" s="17"/>
       <c r="K83" s="14"/>
       <c r="L83" s="20"/>
       <c r="M83" s="4"/>
       <c r="N83" s="8"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="20"/>
+      <c r="O83" s="32"/>
+      <c r="P83" s="28"/>
       <c r="Q83" s="24"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="29"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
       <c r="D84" s="11"/>
       <c r="E84" s="14"/>
       <c r="F84" s="20"/>
       <c r="G84" s="4"/>
       <c r="H84" s="8"/>
-      <c r="I84" s="24"/>
+      <c r="I84" s="32"/>
       <c r="J84" s="17"/>
       <c r="K84" s="14"/>
       <c r="L84" s="20"/>
       <c r="M84" s="4"/>
       <c r="N84" s="8"/>
-      <c r="O84" s="24"/>
-      <c r="P84" s="20"/>
+      <c r="O84" s="32"/>
+      <c r="P84" s="28"/>
       <c r="Q84" s="24"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="29"/>
-      <c r="C85" s="29"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="11"/>
       <c r="E85" s="14"/>
       <c r="F85" s="20"/>
       <c r="G85" s="4"/>
       <c r="H85" s="8"/>
-      <c r="I85" s="24"/>
+      <c r="I85" s="32"/>
       <c r="J85" s="17"/>
       <c r="K85" s="14"/>
       <c r="L85" s="20"/>
       <c r="M85" s="4"/>
       <c r="N85" s="8"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="20"/>
+      <c r="O85" s="32"/>
+      <c r="P85" s="28"/>
       <c r="Q85" s="24"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
       <c r="D86" s="11"/>
       <c r="E86" s="14"/>
       <c r="F86" s="20"/>
       <c r="G86" s="4"/>
       <c r="H86" s="8"/>
-      <c r="I86" s="24"/>
+      <c r="I86" s="32"/>
       <c r="J86" s="17"/>
       <c r="K86" s="14"/>
       <c r="L86" s="20"/>
       <c r="M86" s="4"/>
       <c r="N86" s="8"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="20"/>
+      <c r="O86" s="32"/>
+      <c r="P86" s="28"/>
       <c r="Q86" s="24"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="29"/>
-      <c r="C87" s="29"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
       <c r="D87" s="11"/>
       <c r="E87" s="14"/>
       <c r="F87" s="20"/>
       <c r="G87" s="4"/>
       <c r="H87" s="8"/>
-      <c r="I87" s="24"/>
+      <c r="I87" s="32"/>
       <c r="J87" s="17"/>
       <c r="K87" s="14"/>
       <c r="L87" s="20"/>
       <c r="M87" s="4"/>
       <c r="N87" s="8"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="20"/>
+      <c r="O87" s="32"/>
+      <c r="P87" s="28"/>
       <c r="Q87" s="24"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="29"/>
-      <c r="C88" s="29"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
       <c r="D88" s="11"/>
       <c r="E88" s="14"/>
       <c r="F88" s="20"/>
       <c r="G88" s="4"/>
       <c r="H88" s="8"/>
-      <c r="I88" s="24"/>
+      <c r="I88" s="32"/>
       <c r="J88" s="17"/>
       <c r="K88" s="14"/>
       <c r="L88" s="20"/>
       <c r="M88" s="4"/>
       <c r="N88" s="8"/>
-      <c r="O88" s="24"/>
-      <c r="P88" s="20"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="28"/>
       <c r="Q88" s="24"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="29"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="11"/>
       <c r="E89" s="14"/>
       <c r="F89" s="20"/>
       <c r="G89" s="4"/>
       <c r="H89" s="8"/>
-      <c r="I89" s="24"/>
+      <c r="I89" s="32"/>
       <c r="J89" s="17"/>
       <c r="K89" s="14"/>
       <c r="L89" s="20"/>
       <c r="M89" s="4"/>
       <c r="N89" s="8"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="20"/>
+      <c r="O89" s="32"/>
+      <c r="P89" s="28"/>
       <c r="Q89" s="24"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="29"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="37"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="11"/>
       <c r="E90" s="14"/>
       <c r="F90" s="20"/>
       <c r="G90" s="4"/>
       <c r="H90" s="8"/>
-      <c r="I90" s="24"/>
+      <c r="I90" s="32"/>
       <c r="J90" s="17"/>
       <c r="K90" s="14"/>
       <c r="L90" s="20"/>
       <c r="M90" s="4"/>
       <c r="N90" s="8"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="20"/>
+      <c r="O90" s="32"/>
+      <c r="P90" s="28"/>
       <c r="Q90" s="24"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="11"/>
       <c r="E91" s="14"/>
       <c r="F91" s="20"/>
       <c r="G91" s="4"/>
       <c r="H91" s="8"/>
-      <c r="I91" s="24"/>
+      <c r="I91" s="32"/>
       <c r="J91" s="17"/>
       <c r="K91" s="14"/>
       <c r="L91" s="20"/>
       <c r="M91" s="4"/>
       <c r="N91" s="8"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="20"/>
+      <c r="O91" s="32"/>
+      <c r="P91" s="28"/>
       <c r="Q91" s="24"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="29"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="37"/>
+      <c r="C92" s="37"/>
       <c r="D92" s="11"/>
       <c r="E92" s="14"/>
       <c r="F92" s="20"/>
       <c r="G92" s="4"/>
       <c r="H92" s="8"/>
-      <c r="I92" s="24"/>
+      <c r="I92" s="32"/>
       <c r="J92" s="17"/>
       <c r="K92" s="14"/>
       <c r="L92" s="20"/>
       <c r="M92" s="4"/>
       <c r="N92" s="8"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="20"/>
+      <c r="O92" s="32"/>
+      <c r="P92" s="28"/>
       <c r="Q92" s="24"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="29"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="37"/>
+      <c r="C93" s="37"/>
       <c r="D93" s="11"/>
       <c r="E93" s="14"/>
       <c r="F93" s="20"/>
       <c r="G93" s="4"/>
       <c r="H93" s="8"/>
-      <c r="I93" s="24"/>
+      <c r="I93" s="32"/>
       <c r="J93" s="17"/>
       <c r="K93" s="14"/>
       <c r="L93" s="20"/>
       <c r="M93" s="4"/>
       <c r="N93" s="8"/>
-      <c r="O93" s="24"/>
-      <c r="P93" s="20"/>
+      <c r="O93" s="32"/>
+      <c r="P93" s="28"/>
       <c r="Q93" s="24"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
       <c r="D94" s="11"/>
       <c r="E94" s="14"/>
       <c r="F94" s="20"/>
       <c r="G94" s="4"/>
       <c r="H94" s="8"/>
-      <c r="I94" s="24"/>
+      <c r="I94" s="32"/>
       <c r="J94" s="17"/>
       <c r="K94" s="14"/>
       <c r="L94" s="20"/>
       <c r="M94" s="4"/>
       <c r="N94" s="8"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="20"/>
+      <c r="O94" s="32"/>
+      <c r="P94" s="28"/>
       <c r="Q94" s="24"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="37"/>
+      <c r="C95" s="37"/>
       <c r="D95" s="11"/>
       <c r="E95" s="14"/>
       <c r="F95" s="20"/>
       <c r="G95" s="4"/>
       <c r="H95" s="8"/>
-      <c r="I95" s="24"/>
+      <c r="I95" s="32"/>
       <c r="J95" s="17"/>
       <c r="K95" s="14"/>
       <c r="L95" s="20"/>
       <c r="M95" s="4"/>
       <c r="N95" s="8"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="20"/>
+      <c r="O95" s="32"/>
+      <c r="P95" s="28"/>
       <c r="Q95" s="24"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
-      <c r="B96" s="29"/>
-      <c r="C96" s="29"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="37"/>
       <c r="D96" s="11"/>
       <c r="E96" s="14"/>
       <c r="F96" s="20"/>
       <c r="G96" s="4"/>
       <c r="H96" s="8"/>
-      <c r="I96" s="24"/>
+      <c r="I96" s="32"/>
       <c r="J96" s="17"/>
       <c r="K96" s="14"/>
       <c r="L96" s="20"/>
       <c r="M96" s="4"/>
       <c r="N96" s="8"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="20"/>
+      <c r="O96" s="32"/>
+      <c r="P96" s="28"/>
       <c r="Q96" s="24"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
-      <c r="B97" s="29"/>
-      <c r="C97" s="29"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="37"/>
       <c r="D97" s="11"/>
       <c r="E97" s="14"/>
       <c r="F97" s="20"/>
       <c r="G97" s="4"/>
       <c r="H97" s="8"/>
-      <c r="I97" s="24"/>
+      <c r="I97" s="32"/>
       <c r="J97" s="17"/>
       <c r="K97" s="14"/>
       <c r="L97" s="20"/>
       <c r="M97" s="4"/>
       <c r="N97" s="8"/>
-      <c r="O97" s="24"/>
-      <c r="P97" s="20"/>
+      <c r="O97" s="32"/>
+      <c r="P97" s="28"/>
       <c r="Q97" s="24"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
       <c r="D98" s="11"/>
       <c r="E98" s="14"/>
       <c r="F98" s="20"/>
       <c r="G98" s="4"/>
       <c r="H98" s="8"/>
-      <c r="I98" s="24"/>
+      <c r="I98" s="32"/>
       <c r="J98" s="17"/>
       <c r="K98" s="14"/>
       <c r="L98" s="20"/>
       <c r="M98" s="4"/>
       <c r="N98" s="8"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="20"/>
+      <c r="O98" s="32"/>
+      <c r="P98" s="28"/>
       <c r="Q98" s="24"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
-      <c r="B99" s="29"/>
-      <c r="C99" s="29"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
       <c r="D99" s="11"/>
       <c r="E99" s="14"/>
       <c r="F99" s="20"/>
       <c r="G99" s="4"/>
       <c r="H99" s="8"/>
-      <c r="I99" s="24"/>
+      <c r="I99" s="32"/>
       <c r="J99" s="17"/>
       <c r="K99" s="14"/>
       <c r="L99" s="20"/>
       <c r="M99" s="4"/>
       <c r="N99" s="8"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="20"/>
+      <c r="O99" s="32"/>
+      <c r="P99" s="28"/>
       <c r="Q99" s="24"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A100" s="29"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="29"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
       <c r="D100" s="11"/>
       <c r="E100" s="14"/>
       <c r="F100" s="20"/>
       <c r="G100" s="4"/>
       <c r="H100" s="8"/>
-      <c r="I100" s="24"/>
+      <c r="I100" s="32"/>
       <c r="J100" s="17"/>
       <c r="K100" s="14"/>
       <c r="L100" s="20"/>
       <c r="M100" s="4"/>
       <c r="N100" s="8"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="20"/>
+      <c r="O100" s="32"/>
+      <c r="P100" s="28"/>
       <c r="Q100" s="24"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A101" s="29"/>
-      <c r="B101" s="29"/>
-      <c r="C101" s="29"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="37"/>
       <c r="D101" s="11"/>
       <c r="E101" s="14"/>
       <c r="F101" s="20"/>
       <c r="G101" s="4"/>
       <c r="H101" s="8"/>
-      <c r="I101" s="24"/>
+      <c r="I101" s="32"/>
       <c r="J101" s="17"/>
       <c r="K101" s="14"/>
       <c r="L101" s="20"/>
       <c r="M101" s="4"/>
       <c r="N101" s="8"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="20"/>
+      <c r="O101" s="32"/>
+      <c r="P101" s="28"/>
       <c r="Q101" s="24"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A102" s="29"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
       <c r="D102" s="11"/>
       <c r="E102" s="14"/>
       <c r="F102" s="20"/>
       <c r="G102" s="4"/>
       <c r="H102" s="8"/>
-      <c r="I102" s="24"/>
+      <c r="I102" s="32"/>
       <c r="J102" s="17"/>
       <c r="K102" s="14"/>
       <c r="L102" s="20"/>
       <c r="M102" s="4"/>
       <c r="N102" s="8"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="20"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="28"/>
       <c r="Q102" s="24"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A103" s="29"/>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
       <c r="D103" s="11"/>
       <c r="E103" s="14"/>
       <c r="F103" s="20"/>
       <c r="G103" s="4"/>
       <c r="H103" s="8"/>
-      <c r="I103" s="24"/>
+      <c r="I103" s="32"/>
       <c r="J103" s="17"/>
       <c r="K103" s="14"/>
       <c r="L103" s="20"/>
       <c r="M103" s="4"/>
       <c r="N103" s="8"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="20"/>
+      <c r="O103" s="32"/>
+      <c r="P103" s="28"/>
       <c r="Q103" s="24"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A104" s="29"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="29"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="37"/>
       <c r="D104" s="11"/>
       <c r="E104" s="14"/>
       <c r="F104" s="20"/>
       <c r="G104" s="4"/>
       <c r="H104" s="8"/>
-      <c r="I104" s="24"/>
+      <c r="I104" s="32"/>
       <c r="J104" s="17"/>
       <c r="K104" s="14"/>
       <c r="L104" s="20"/>
       <c r="M104" s="4"/>
       <c r="N104" s="8"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="20"/>
+      <c r="O104" s="32"/>
+      <c r="P104" s="28"/>
       <c r="Q104" s="24"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A105" s="29"/>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
+      <c r="C105" s="37"/>
       <c r="D105" s="11"/>
       <c r="E105" s="14"/>
       <c r="F105" s="20"/>
       <c r="G105" s="4"/>
       <c r="H105" s="8"/>
-      <c r="I105" s="24"/>
+      <c r="I105" s="32"/>
       <c r="J105" s="17"/>
       <c r="K105" s="14"/>
       <c r="L105" s="20"/>
       <c r="M105" s="4"/>
       <c r="N105" s="8"/>
-      <c r="O105" s="24"/>
-      <c r="P105" s="20"/>
+      <c r="O105" s="32"/>
+      <c r="P105" s="28"/>
       <c r="Q105" s="24"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A106" s="29"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="29"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
       <c r="D106" s="11"/>
       <c r="E106" s="14"/>
       <c r="F106" s="20"/>
       <c r="G106" s="4"/>
       <c r="H106" s="8"/>
-      <c r="I106" s="24"/>
+      <c r="I106" s="32"/>
       <c r="J106" s="17"/>
       <c r="K106" s="14"/>
       <c r="L106" s="20"/>
       <c r="M106" s="4"/>
       <c r="N106" s="8"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="20"/>
+      <c r="O106" s="32"/>
+      <c r="P106" s="28"/>
       <c r="Q106" s="24"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A107" s="29"/>
-      <c r="B107" s="29"/>
-      <c r="C107" s="29"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
       <c r="D107" s="11"/>
       <c r="E107" s="14"/>
       <c r="F107" s="20"/>
       <c r="G107" s="4"/>
       <c r="H107" s="8"/>
-      <c r="I107" s="24"/>
+      <c r="I107" s="32"/>
       <c r="J107" s="17"/>
       <c r="K107" s="14"/>
       <c r="L107" s="20"/>
       <c r="M107" s="4"/>
       <c r="N107" s="8"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="20"/>
+      <c r="O107" s="32"/>
+      <c r="P107" s="28"/>
       <c r="Q107" s="24"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A108" s="29"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="37"/>
       <c r="D108" s="11"/>
       <c r="E108" s="14"/>
       <c r="F108" s="20"/>
       <c r="G108" s="4"/>
       <c r="H108" s="8"/>
-      <c r="I108" s="24"/>
+      <c r="I108" s="32"/>
       <c r="J108" s="17"/>
       <c r="K108" s="14"/>
       <c r="L108" s="20"/>
       <c r="M108" s="4"/>
       <c r="N108" s="8"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="20"/>
+      <c r="O108" s="32"/>
+      <c r="P108" s="28"/>
       <c r="Q108" s="24"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A109" s="29"/>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="37"/>
+      <c r="C109" s="37"/>
       <c r="D109" s="11"/>
       <c r="E109" s="14"/>
       <c r="F109" s="20"/>
       <c r="G109" s="4"/>
       <c r="H109" s="8"/>
-      <c r="I109" s="24"/>
+      <c r="I109" s="32"/>
       <c r="J109" s="17"/>
       <c r="K109" s="14"/>
       <c r="L109" s="20"/>
       <c r="M109" s="4"/>
       <c r="N109" s="8"/>
-      <c r="O109" s="24"/>
-      <c r="P109" s="20"/>
+      <c r="O109" s="32"/>
+      <c r="P109" s="28"/>
       <c r="Q109" s="24"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A110" s="29"/>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
       <c r="D110" s="11"/>
       <c r="E110" s="14"/>
       <c r="F110" s="20"/>
       <c r="G110" s="4"/>
       <c r="H110" s="8"/>
-      <c r="I110" s="24"/>
+      <c r="I110" s="32"/>
       <c r="J110" s="17"/>
       <c r="K110" s="14"/>
       <c r="L110" s="20"/>
       <c r="M110" s="4"/>
       <c r="N110" s="8"/>
-      <c r="O110" s="24"/>
-      <c r="P110" s="20"/>
+      <c r="O110" s="32"/>
+      <c r="P110" s="28"/>
       <c r="Q110" s="24"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A111" s="29"/>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
       <c r="D111" s="11"/>
       <c r="E111" s="14"/>
       <c r="F111" s="20"/>
       <c r="G111" s="4"/>
       <c r="H111" s="8"/>
-      <c r="I111" s="24"/>
+      <c r="I111" s="32"/>
       <c r="J111" s="17"/>
       <c r="K111" s="14"/>
       <c r="L111" s="20"/>
       <c r="M111" s="4"/>
       <c r="N111" s="8"/>
-      <c r="O111" s="24"/>
-      <c r="P111" s="20"/>
+      <c r="O111" s="32"/>
+      <c r="P111" s="28"/>
       <c r="Q111" s="24"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A112" s="29"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="37"/>
+      <c r="C112" s="37"/>
       <c r="D112" s="11"/>
       <c r="E112" s="14"/>
       <c r="F112" s="20"/>
       <c r="G112" s="4"/>
       <c r="H112" s="8"/>
-      <c r="I112" s="24"/>
+      <c r="I112" s="32"/>
       <c r="J112" s="17"/>
       <c r="K112" s="14"/>
       <c r="L112" s="20"/>
       <c r="M112" s="4"/>
       <c r="N112" s="8"/>
-      <c r="O112" s="24"/>
-      <c r="P112" s="20"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="28"/>
       <c r="Q112" s="24"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A113" s="29"/>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="37"/>
       <c r="D113" s="11"/>
       <c r="E113" s="14"/>
       <c r="F113" s="20"/>
       <c r="G113" s="4"/>
       <c r="H113" s="8"/>
-      <c r="I113" s="24"/>
+      <c r="I113" s="32"/>
       <c r="J113" s="17"/>
       <c r="K113" s="14"/>
       <c r="L113" s="20"/>
       <c r="M113" s="4"/>
       <c r="N113" s="8"/>
-      <c r="O113" s="24"/>
-      <c r="P113" s="20"/>
+      <c r="O113" s="32"/>
+      <c r="P113" s="28"/>
       <c r="Q113" s="24"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A114" s="29"/>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
       <c r="D114" s="11"/>
       <c r="E114" s="14"/>
       <c r="F114" s="20"/>
       <c r="G114" s="4"/>
       <c r="H114" s="8"/>
-      <c r="I114" s="24"/>
+      <c r="I114" s="32"/>
       <c r="J114" s="17"/>
       <c r="K114" s="14"/>
       <c r="L114" s="20"/>
       <c r="M114" s="4"/>
       <c r="N114" s="8"/>
-      <c r="O114" s="24"/>
-      <c r="P114" s="20"/>
+      <c r="O114" s="32"/>
+      <c r="P114" s="28"/>
       <c r="Q114" s="24"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A115" s="29"/>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
       <c r="D115" s="11"/>
       <c r="E115" s="14"/>
       <c r="F115" s="20"/>
       <c r="G115" s="4"/>
       <c r="H115" s="8"/>
-      <c r="I115" s="24"/>
+      <c r="I115" s="32"/>
       <c r="J115" s="17"/>
       <c r="K115" s="14"/>
       <c r="L115" s="20"/>
       <c r="M115" s="4"/>
       <c r="N115" s="8"/>
-      <c r="O115" s="24"/>
-      <c r="P115" s="20"/>
+      <c r="O115" s="32"/>
+      <c r="P115" s="28"/>
       <c r="Q115" s="24"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A116" s="29"/>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
       <c r="D116" s="11"/>
       <c r="E116" s="14"/>
       <c r="F116" s="20"/>
       <c r="G116" s="4"/>
       <c r="H116" s="8"/>
-      <c r="I116" s="24"/>
+      <c r="I116" s="32"/>
       <c r="J116" s="17"/>
       <c r="K116" s="14"/>
       <c r="L116" s="20"/>
       <c r="M116" s="4"/>
       <c r="N116" s="8"/>
-      <c r="O116" s="24"/>
-      <c r="P116" s="20"/>
+      <c r="O116" s="32"/>
+      <c r="P116" s="28"/>
       <c r="Q116" s="24"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A117" s="29"/>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="37"/>
+      <c r="C117" s="37"/>
       <c r="D117" s="11"/>
       <c r="E117" s="14"/>
       <c r="F117" s="20"/>
       <c r="G117" s="4"/>
       <c r="H117" s="8"/>
-      <c r="I117" s="24"/>
+      <c r="I117" s="32"/>
       <c r="J117" s="17"/>
       <c r="K117" s="14"/>
       <c r="L117" s="20"/>
       <c r="M117" s="4"/>
       <c r="N117" s="8"/>
-      <c r="O117" s="24"/>
-      <c r="P117" s="20"/>
+      <c r="O117" s="32"/>
+      <c r="P117" s="28"/>
       <c r="Q117" s="24"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A118" s="29"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37"/>
       <c r="D118" s="11"/>
       <c r="E118" s="14"/>
       <c r="F118" s="20"/>
       <c r="G118" s="4"/>
       <c r="H118" s="8"/>
-      <c r="I118" s="24"/>
+      <c r="I118" s="32"/>
       <c r="J118" s="17"/>
       <c r="K118" s="14"/>
       <c r="L118" s="20"/>
       <c r="M118" s="4"/>
       <c r="N118" s="8"/>
-      <c r="O118" s="24"/>
-      <c r="P118" s="20"/>
+      <c r="O118" s="32"/>
+      <c r="P118" s="28"/>
       <c r="Q118" s="24"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A119" s="29"/>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="37"/>
       <c r="D119" s="11"/>
       <c r="E119" s="14"/>
       <c r="F119" s="20"/>
       <c r="G119" s="4"/>
       <c r="H119" s="8"/>
-      <c r="I119" s="24"/>
+      <c r="I119" s="32"/>
       <c r="J119" s="17"/>
       <c r="K119" s="14"/>
       <c r="L119" s="20"/>
       <c r="M119" s="4"/>
       <c r="N119" s="8"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="20"/>
+      <c r="O119" s="32"/>
+      <c r="P119" s="28"/>
       <c r="Q119" s="24"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A120" s="29"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="37"/>
       <c r="D120" s="11"/>
       <c r="E120" s="14"/>
       <c r="F120" s="20"/>
       <c r="G120" s="4"/>
       <c r="H120" s="8"/>
-      <c r="I120" s="24"/>
+      <c r="I120" s="32"/>
       <c r="J120" s="17"/>
       <c r="K120" s="14"/>
       <c r="L120" s="20"/>
       <c r="M120" s="4"/>
       <c r="N120" s="8"/>
-      <c r="O120" s="24"/>
-      <c r="P120" s="20"/>
+      <c r="O120" s="32"/>
+      <c r="P120" s="28"/>
       <c r="Q120" s="24"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A121" s="29"/>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="37"/>
+      <c r="C121" s="37"/>
       <c r="D121" s="11"/>
       <c r="E121" s="14"/>
       <c r="F121" s="20"/>
       <c r="G121" s="4"/>
       <c r="H121" s="8"/>
-      <c r="I121" s="24"/>
+      <c r="I121" s="32"/>
       <c r="J121" s="17"/>
       <c r="K121" s="14"/>
       <c r="L121" s="20"/>
       <c r="M121" s="4"/>
       <c r="N121" s="8"/>
-      <c r="O121" s="24"/>
-      <c r="P121" s="20"/>
+      <c r="O121" s="32"/>
+      <c r="P121" s="28"/>
       <c r="Q121" s="24"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="37"/>
       <c r="D122" s="11"/>
       <c r="E122" s="14"/>
       <c r="F122" s="20"/>
       <c r="G122" s="4"/>
       <c r="H122" s="8"/>
-      <c r="I122" s="24"/>
+      <c r="I122" s="32"/>
       <c r="J122" s="17"/>
       <c r="K122" s="14"/>
       <c r="L122" s="20"/>
       <c r="M122" s="4"/>
       <c r="N122" s="8"/>
-      <c r="O122" s="24"/>
-      <c r="P122" s="20"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="28"/>
       <c r="Q122" s="24"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A123" s="29"/>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
       <c r="D123" s="11"/>
       <c r="E123" s="14"/>
       <c r="F123" s="20"/>
       <c r="G123" s="4"/>
       <c r="H123" s="8"/>
-      <c r="I123" s="24"/>
+      <c r="I123" s="32"/>
       <c r="J123" s="17"/>
       <c r="K123" s="14"/>
       <c r="L123" s="20"/>
       <c r="M123" s="4"/>
       <c r="N123" s="8"/>
-      <c r="O123" s="24"/>
-      <c r="P123" s="20"/>
+      <c r="O123" s="32"/>
+      <c r="P123" s="28"/>
       <c r="Q123" s="24"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A124" s="29"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
       <c r="D124" s="11"/>
       <c r="E124" s="14"/>
       <c r="F124" s="20"/>
       <c r="G124" s="4"/>
       <c r="H124" s="8"/>
-      <c r="I124" s="24"/>
+      <c r="I124" s="32"/>
       <c r="J124" s="17"/>
       <c r="K124" s="14"/>
       <c r="L124" s="20"/>
       <c r="M124" s="4"/>
       <c r="N124" s="8"/>
-      <c r="O124" s="24"/>
-      <c r="P124" s="20"/>
+      <c r="O124" s="32"/>
+      <c r="P124" s="28"/>
       <c r="Q124" s="24"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A125" s="29"/>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="37"/>
+      <c r="C125" s="37"/>
       <c r="D125" s="11"/>
       <c r="E125" s="14"/>
       <c r="F125" s="20"/>
       <c r="G125" s="4"/>
       <c r="H125" s="8"/>
-      <c r="I125" s="24"/>
+      <c r="I125" s="32"/>
       <c r="J125" s="17"/>
       <c r="K125" s="14"/>
       <c r="L125" s="20"/>
       <c r="M125" s="4"/>
       <c r="N125" s="8"/>
-      <c r="O125" s="24"/>
-      <c r="P125" s="20"/>
+      <c r="O125" s="32"/>
+      <c r="P125" s="28"/>
       <c r="Q125" s="24"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A126" s="29"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="37"/>
       <c r="D126" s="11"/>
       <c r="E126" s="14"/>
       <c r="F126" s="20"/>
       <c r="G126" s="4"/>
       <c r="H126" s="8"/>
-      <c r="I126" s="24"/>
+      <c r="I126" s="32"/>
       <c r="J126" s="17"/>
       <c r="K126" s="14"/>
       <c r="L126" s="20"/>
       <c r="M126" s="4"/>
       <c r="N126" s="8"/>
-      <c r="O126" s="24"/>
-      <c r="P126" s="20"/>
+      <c r="O126" s="32"/>
+      <c r="P126" s="28"/>
       <c r="Q126" s="24"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A127" s="29"/>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37"/>
       <c r="D127" s="11"/>
       <c r="E127" s="14"/>
       <c r="F127" s="20"/>
       <c r="G127" s="4"/>
       <c r="H127" s="8"/>
-      <c r="I127" s="24"/>
+      <c r="I127" s="32"/>
       <c r="J127" s="17"/>
       <c r="K127" s="14"/>
       <c r="L127" s="20"/>
       <c r="M127" s="4"/>
       <c r="N127" s="8"/>
-      <c r="O127" s="24"/>
-      <c r="P127" s="20"/>
+      <c r="O127" s="32"/>
+      <c r="P127" s="28"/>
       <c r="Q127" s="24"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A128" s="29"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
       <c r="D128" s="11"/>
       <c r="E128" s="14"/>
       <c r="F128" s="20"/>
       <c r="G128" s="4"/>
       <c r="H128" s="8"/>
-      <c r="I128" s="24"/>
+      <c r="I128" s="32"/>
       <c r="J128" s="17"/>
       <c r="K128" s="14"/>
       <c r="L128" s="20"/>
       <c r="M128" s="4"/>
       <c r="N128" s="8"/>
-      <c r="O128" s="24"/>
-      <c r="P128" s="20"/>
+      <c r="O128" s="32"/>
+      <c r="P128" s="28"/>
       <c r="Q128" s="24"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A129" s="29"/>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="37"/>
       <c r="D129" s="11"/>
       <c r="E129" s="14"/>
       <c r="F129" s="20"/>
       <c r="G129" s="4"/>
       <c r="H129" s="8"/>
-      <c r="I129" s="24"/>
+      <c r="I129" s="32"/>
       <c r="J129" s="17"/>
       <c r="K129" s="14"/>
       <c r="L129" s="20"/>
       <c r="M129" s="4"/>
       <c r="N129" s="8"/>
-      <c r="O129" s="24"/>
-      <c r="P129" s="20"/>
+      <c r="O129" s="32"/>
+      <c r="P129" s="28"/>
       <c r="Q129" s="24"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A130" s="29"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
       <c r="D130" s="11"/>
       <c r="E130" s="14"/>
       <c r="F130" s="20"/>
       <c r="G130" s="4"/>
       <c r="H130" s="8"/>
-      <c r="I130" s="24"/>
+      <c r="I130" s="32"/>
       <c r="J130" s="17"/>
       <c r="K130" s="14"/>
       <c r="L130" s="20"/>
       <c r="M130" s="4"/>
       <c r="N130" s="8"/>
-      <c r="O130" s="24"/>
-      <c r="P130" s="20"/>
+      <c r="O130" s="32"/>
+      <c r="P130" s="28"/>
       <c r="Q130" s="24"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A131" s="29"/>
-      <c r="B131" s="29"/>
-      <c r="C131" s="29"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="37"/>
       <c r="D131" s="11"/>
       <c r="E131" s="14"/>
       <c r="F131" s="20"/>
       <c r="G131" s="4"/>
       <c r="H131" s="8"/>
-      <c r="I131" s="24"/>
+      <c r="I131" s="32"/>
       <c r="J131" s="17"/>
       <c r="K131" s="14"/>
       <c r="L131" s="20"/>
       <c r="M131" s="4"/>
       <c r="N131" s="8"/>
-      <c r="O131" s="24"/>
-      <c r="P131" s="20"/>
+      <c r="O131" s="32"/>
+      <c r="P131" s="28"/>
       <c r="Q131" s="24"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" s="29"/>
-      <c r="B132" s="29"/>
-      <c r="C132" s="29"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
       <c r="D132" s="11"/>
       <c r="E132" s="14"/>
       <c r="F132" s="20"/>
       <c r="G132" s="4"/>
       <c r="H132" s="8"/>
-      <c r="I132" s="24"/>
+      <c r="I132" s="32"/>
       <c r="J132" s="17"/>
       <c r="K132" s="14"/>
       <c r="L132" s="20"/>
       <c r="M132" s="4"/>
       <c r="N132" s="8"/>
-      <c r="O132" s="24"/>
-      <c r="P132" s="20"/>
+      <c r="O132" s="32"/>
+      <c r="P132" s="28"/>
       <c r="Q132" s="24"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" s="29"/>
-      <c r="B133" s="29"/>
-      <c r="C133" s="29"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
       <c r="D133" s="11"/>
       <c r="E133" s="14"/>
       <c r="F133" s="20"/>
       <c r="G133" s="4"/>
       <c r="H133" s="8"/>
-      <c r="I133" s="24"/>
+      <c r="I133" s="32"/>
       <c r="J133" s="17"/>
       <c r="K133" s="14"/>
       <c r="L133" s="20"/>
       <c r="M133" s="4"/>
       <c r="N133" s="8"/>
-      <c r="O133" s="24"/>
-      <c r="P133" s="20"/>
+      <c r="O133" s="32"/>
+      <c r="P133" s="28"/>
       <c r="Q133" s="24"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134" s="29"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="29"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
       <c r="D134" s="11"/>
       <c r="E134" s="14"/>
       <c r="F134" s="20"/>
       <c r="G134" s="4"/>
       <c r="H134" s="8"/>
-      <c r="I134" s="24"/>
+      <c r="I134" s="32"/>
       <c r="J134" s="17"/>
       <c r="K134" s="14"/>
       <c r="L134" s="20"/>
       <c r="M134" s="4"/>
       <c r="N134" s="8"/>
-      <c r="O134" s="24"/>
-      <c r="P134" s="20"/>
+      <c r="O134" s="32"/>
+      <c r="P134" s="28"/>
       <c r="Q134" s="24"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135" s="29"/>
-      <c r="B135" s="29"/>
-      <c r="C135" s="29"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
       <c r="D135" s="11"/>
       <c r="E135" s="14"/>
       <c r="F135" s="20"/>
       <c r="G135" s="4"/>
       <c r="H135" s="8"/>
-      <c r="I135" s="24"/>
+      <c r="I135" s="32"/>
       <c r="J135" s="17"/>
       <c r="K135" s="14"/>
       <c r="L135" s="20"/>
       <c r="M135" s="4"/>
       <c r="N135" s="8"/>
-      <c r="O135" s="24"/>
-      <c r="P135" s="20"/>
+      <c r="O135" s="32"/>
+      <c r="P135" s="28"/>
       <c r="Q135" s="24"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136" s="29"/>
-      <c r="B136" s="29"/>
-      <c r="C136" s="29"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="37"/>
       <c r="D136" s="11"/>
       <c r="E136" s="14"/>
       <c r="F136" s="20"/>
       <c r="G136" s="4"/>
       <c r="H136" s="8"/>
-      <c r="I136" s="24"/>
+      <c r="I136" s="32"/>
       <c r="J136" s="17"/>
       <c r="K136" s="14"/>
       <c r="L136" s="20"/>
       <c r="M136" s="4"/>
       <c r="N136" s="8"/>
-      <c r="O136" s="24"/>
-      <c r="P136" s="20"/>
+      <c r="O136" s="32"/>
+      <c r="P136" s="28"/>
       <c r="Q136" s="24"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137" s="29"/>
-      <c r="B137" s="29"/>
-      <c r="C137" s="29"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="37"/>
       <c r="D137" s="11"/>
       <c r="E137" s="14"/>
       <c r="F137" s="20"/>
       <c r="G137" s="4"/>
       <c r="H137" s="8"/>
-      <c r="I137" s="24"/>
+      <c r="I137" s="32"/>
       <c r="J137" s="17"/>
       <c r="K137" s="14"/>
       <c r="L137" s="20"/>
       <c r="M137" s="4"/>
       <c r="N137" s="8"/>
-      <c r="O137" s="24"/>
-      <c r="P137" s="20"/>
+      <c r="O137" s="32"/>
+      <c r="P137" s="28"/>
       <c r="Q137" s="24"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138" s="29"/>
-      <c r="B138" s="29"/>
-      <c r="C138" s="29"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
       <c r="D138" s="11"/>
       <c r="E138" s="14"/>
       <c r="F138" s="20"/>
       <c r="G138" s="4"/>
       <c r="H138" s="8"/>
-      <c r="I138" s="24"/>
+      <c r="I138" s="32"/>
       <c r="J138" s="17"/>
       <c r="K138" s="14"/>
       <c r="L138" s="20"/>
       <c r="M138" s="4"/>
       <c r="N138" s="8"/>
-      <c r="O138" s="24"/>
-      <c r="P138" s="20"/>
+      <c r="O138" s="32"/>
+      <c r="P138" s="28"/>
       <c r="Q138" s="24"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139" s="29"/>
-      <c r="B139" s="29"/>
-      <c r="C139" s="29"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
       <c r="D139" s="11"/>
       <c r="E139" s="14"/>
       <c r="F139" s="20"/>
       <c r="G139" s="4"/>
       <c r="H139" s="8"/>
-      <c r="I139" s="24"/>
+      <c r="I139" s="32"/>
       <c r="J139" s="17"/>
       <c r="K139" s="14"/>
       <c r="L139" s="20"/>
       <c r="M139" s="4"/>
       <c r="N139" s="8"/>
-      <c r="O139" s="24"/>
-      <c r="P139" s="20"/>
+      <c r="O139" s="32"/>
+      <c r="P139" s="28"/>
       <c r="Q139" s="24"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140" s="29"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="29"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
       <c r="D140" s="11"/>
       <c r="E140" s="14"/>
       <c r="F140" s="20"/>
       <c r="G140" s="4"/>
       <c r="H140" s="8"/>
-      <c r="I140" s="24"/>
+      <c r="I140" s="32"/>
       <c r="J140" s="17"/>
       <c r="K140" s="14"/>
       <c r="L140" s="20"/>
       <c r="M140" s="4"/>
       <c r="N140" s="8"/>
-      <c r="O140" s="24"/>
-      <c r="P140" s="20"/>
+      <c r="O140" s="32"/>
+      <c r="P140" s="28"/>
       <c r="Q140" s="24"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A141" s="29"/>
-      <c r="B141" s="29"/>
-      <c r="C141" s="29"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="37"/>
       <c r="D141" s="11"/>
       <c r="E141" s="14"/>
       <c r="F141" s="20"/>
       <c r="G141" s="4"/>
       <c r="H141" s="8"/>
-      <c r="I141" s="24"/>
+      <c r="I141" s="32"/>
       <c r="J141" s="17"/>
       <c r="K141" s="14"/>
       <c r="L141" s="20"/>
       <c r="M141" s="4"/>
       <c r="N141" s="8"/>
-      <c r="O141" s="24"/>
-      <c r="P141" s="20"/>
+      <c r="O141" s="32"/>
+      <c r="P141" s="28"/>
       <c r="Q141" s="24"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142" s="29"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="29"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
       <c r="D142" s="11"/>
       <c r="E142" s="14"/>
       <c r="F142" s="20"/>
       <c r="G142" s="4"/>
       <c r="H142" s="8"/>
-      <c r="I142" s="24"/>
+      <c r="I142" s="32"/>
       <c r="J142" s="17"/>
       <c r="K142" s="14"/>
       <c r="L142" s="20"/>
       <c r="M142" s="4"/>
       <c r="N142" s="8"/>
-      <c r="O142" s="24"/>
-      <c r="P142" s="20"/>
+      <c r="O142" s="32"/>
+      <c r="P142" s="28"/>
       <c r="Q142" s="24"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143" s="29"/>
-      <c r="B143" s="29"/>
-      <c r="C143" s="29"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="37"/>
       <c r="D143" s="11"/>
       <c r="E143" s="14"/>
       <c r="F143" s="20"/>
       <c r="G143" s="4"/>
       <c r="H143" s="8"/>
-      <c r="I143" s="24"/>
+      <c r="I143" s="32"/>
       <c r="J143" s="17"/>
       <c r="K143" s="14"/>
       <c r="L143" s="20"/>
       <c r="M143" s="4"/>
       <c r="N143" s="8"/>
-      <c r="O143" s="24"/>
-      <c r="P143" s="20"/>
+      <c r="O143" s="32"/>
+      <c r="P143" s="28"/>
       <c r="Q143" s="24"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A144" s="29"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="29"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="37"/>
+      <c r="C144" s="37"/>
       <c r="D144" s="11"/>
       <c r="E144" s="14"/>
       <c r="F144" s="20"/>
       <c r="G144" s="4"/>
       <c r="H144" s="8"/>
-      <c r="I144" s="24"/>
+      <c r="I144" s="32"/>
       <c r="J144" s="17"/>
       <c r="K144" s="14"/>
       <c r="L144" s="20"/>
       <c r="M144" s="4"/>
       <c r="N144" s="8"/>
-      <c r="O144" s="24"/>
-      <c r="P144" s="20"/>
+      <c r="O144" s="32"/>
+      <c r="P144" s="28"/>
       <c r="Q144" s="24"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A145" s="29"/>
-      <c r="B145" s="29"/>
-      <c r="C145" s="29"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
       <c r="D145" s="11"/>
       <c r="E145" s="14"/>
       <c r="F145" s="20"/>
       <c r="G145" s="4"/>
       <c r="H145" s="8"/>
-      <c r="I145" s="24"/>
+      <c r="I145" s="32"/>
       <c r="J145" s="17"/>
       <c r="K145" s="14"/>
       <c r="L145" s="20"/>
       <c r="M145" s="4"/>
       <c r="N145" s="8"/>
-      <c r="O145" s="24"/>
-      <c r="P145" s="20"/>
+      <c r="O145" s="32"/>
+      <c r="P145" s="28"/>
       <c r="Q145" s="24"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A146" s="29"/>
-      <c r="B146" s="29"/>
-      <c r="C146" s="29"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="37"/>
       <c r="D146" s="11"/>
       <c r="E146" s="14"/>
       <c r="F146" s="20"/>
       <c r="G146" s="4"/>
       <c r="H146" s="8"/>
-      <c r="I146" s="24"/>
+      <c r="I146" s="32"/>
       <c r="J146" s="17"/>
       <c r="K146" s="14"/>
       <c r="L146" s="20"/>
       <c r="M146" s="4"/>
       <c r="N146" s="8"/>
-      <c r="O146" s="24"/>
-      <c r="P146" s="20"/>
+      <c r="O146" s="32"/>
+      <c r="P146" s="28"/>
       <c r="Q146" s="24"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A147" s="29"/>
-      <c r="B147" s="29"/>
-      <c r="C147" s="29"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="37"/>
+      <c r="C147" s="37"/>
       <c r="D147" s="11"/>
       <c r="E147" s="14"/>
       <c r="F147" s="20"/>
       <c r="G147" s="4"/>
       <c r="H147" s="8"/>
-      <c r="I147" s="24"/>
+      <c r="I147" s="32"/>
       <c r="J147" s="17"/>
       <c r="K147" s="14"/>
       <c r="L147" s="20"/>
       <c r="M147" s="4"/>
       <c r="N147" s="8"/>
-      <c r="O147" s="24"/>
-      <c r="P147" s="20"/>
+      <c r="O147" s="32"/>
+      <c r="P147" s="28"/>
       <c r="Q147" s="24"/>
     </row>
   </sheetData>

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -673,7 +673,7 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,17 +813,25 @@
       <c r="C3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="14"/>
+      <c r="D3" s="11">
+        <v>106</v>
+      </c>
+      <c r="E3" s="14">
+        <v>99</v>
+      </c>
       <c r="F3" s="19">
         <f t="shared" ref="F3:F10" si="0">D3-E3</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8">
+        <v>29</v>
+      </c>
       <c r="I3" s="31">
         <f t="shared" ref="I3:I10" si="1">G3-H3</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
       <c r="J3" s="17">
         <v>97</v>
@@ -847,17 +855,23 @@
       </c>
       <c r="P3" s="27">
         <f t="shared" ref="P3:P10" si="4">L3-F3</f>
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="Q3" s="23">
         <f t="shared" ref="Q3:Q10" si="5">O3-I3</f>
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="37">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="14"/>
       <c r="F4" s="19">

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -673,7 +673,7 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,17 +872,25 @@
       <c r="C4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="11">
+        <v>104</v>
+      </c>
+      <c r="E4" s="14">
+        <v>100</v>
+      </c>
       <c r="F4" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>29</v>
+      </c>
+      <c r="H4" s="8">
+        <v>28</v>
+      </c>
       <c r="I4" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="14"/>
@@ -898,29 +906,36 @@
       </c>
       <c r="P4" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Q4" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="37">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11">
+        <v>113</v>
+      </c>
+      <c r="E5" s="14">
+        <v>84</v>
+      </c>
       <c r="F5" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="I5" s="31"/>
       <c r="J5" s="17"/>
       <c r="K5" s="14"/>
       <c r="L5" s="19">
@@ -935,12 +950,9 @@
       </c>
       <c r="P5" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="23">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+        <v>-29</v>
+      </c>
+      <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="37"/>

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -673,7 +673,7 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,25 +892,33 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="J4" s="17"/>
-      <c r="K4" s="14"/>
+      <c r="J4" s="17">
+        <v>107</v>
+      </c>
+      <c r="K4" s="14">
+        <v>92</v>
+      </c>
       <c r="L4" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="M4" s="4">
+        <v>23</v>
+      </c>
+      <c r="N4" s="8">
+        <v>25</v>
+      </c>
       <c r="O4" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" s="27">
         <f t="shared" si="4"/>
-        <v>-4</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="23">
         <f t="shared" si="5"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Thunder</t>
+  </si>
+  <si>
+    <t>Knicks</t>
+  </si>
+  <si>
+    <t>Warriors</t>
   </si>
 </sst>
 </file>
@@ -673,7 +679,7 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,9 +969,15 @@
       <c r="Q5" s="23"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="37">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="14"/>
       <c r="F6" s="19">

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -679,7 +679,7 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,11 +978,15 @@
       <c r="C6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="11">
+        <v>131</v>
+      </c>
+      <c r="E6" s="14">
+        <v>127</v>
+      </c>
       <c r="F6" s="19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="8"/>
@@ -1004,7 +1008,7 @@
       </c>
       <c r="P6" s="27">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="Q6" s="23">
         <f t="shared" si="5"/>

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -679,7 +679,7 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,11 +988,15 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="8"/>
+      <c r="G6" s="4">
+        <v>18</v>
+      </c>
+      <c r="H6" s="8">
+        <v>14</v>
+      </c>
       <c r="I6" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="14"/>
@@ -1012,13 +1016,15 @@
       </c>
       <c r="Q6" s="23">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+      <c r="C7" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="14"/>
       <c r="F7" s="19">

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -679,7 +679,7 @@
   <dimension ref="A1:Q147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,25 +998,33 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="J6" s="17"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="17">
+        <v>110</v>
+      </c>
+      <c r="K6" s="14">
+        <v>109</v>
+      </c>
       <c r="L6" s="19">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="M6" s="4">
+        <v>25</v>
+      </c>
+      <c r="N6" s="8">
+        <v>22</v>
+      </c>
       <c r="O6" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="P6" s="27">
         <f t="shared" si="4"/>
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="Q6" s="23">
         <f t="shared" si="5"/>
-        <v>-4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joni\Documents\GitHub\NBA-analyysi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -84,46 +88,19 @@
   </si>
   <si>
     <t>Warriors</t>
-  </si>
-  <si>
-    <t>SPURGU</t>
-  </si>
-  <si>
-    <t>SPÄRDÖÖ</t>
-  </si>
-  <si>
-    <t>asd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="9">
@@ -177,303 +154,249 @@
     </fill>
   </fills>
   <borders count="15">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="39">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -532,39 +455,313 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F4E79"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="4" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="9.14285714285714"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="10.2857142857143"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="7" width="10.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.72959183673469"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="9.140625" style="3"/>
+    <col min="7" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="10" max="11" width="9.140625" style="2"/>
+    <col min="12" max="12" width="9.140625" style="3"/>
+    <col min="13" max="14" width="9.140625" style="4"/>
+    <col min="15" max="15" width="9.140625" style="5"/>
+    <col min="16" max="16" width="10.28515625" style="6"/>
+    <col min="17" max="17" width="10.85546875" style="7"/>
+    <col min="18" max="1025" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -617,8 +814,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="n">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -627,57 +824,57 @@
       <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="20" t="n">
+      <c r="D2" s="20">
         <v>106</v>
       </c>
-      <c r="E2" s="21" t="n">
+      <c r="E2" s="21">
         <v>96</v>
       </c>
-      <c r="F2" s="22" t="n">
-        <f aca="false">D2-E2</f>
+      <c r="F2" s="22">
+        <f t="shared" ref="F2:F10" si="0">D2-E2</f>
         <v>10</v>
       </c>
-      <c r="G2" s="23" t="n">
+      <c r="G2" s="23">
         <v>29</v>
       </c>
-      <c r="H2" s="24" t="n">
+      <c r="H2" s="24">
         <v>23</v>
       </c>
-      <c r="I2" s="25" t="n">
-        <f aca="false">G2-H2</f>
+      <c r="I2" s="25">
+        <f>G2-H2</f>
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="n">
+      <c r="J2" s="26">
         <v>91</v>
       </c>
-      <c r="K2" s="21" t="n">
+      <c r="K2" s="21">
         <v>92</v>
       </c>
-      <c r="L2" s="22" t="n">
-        <f aca="false">J2-K2</f>
+      <c r="L2" s="22">
+        <f t="shared" ref="L2:L10" si="1">J2-K2</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="23" t="n">
+      <c r="M2" s="23">
         <v>26</v>
       </c>
-      <c r="N2" s="24" t="n">
+      <c r="N2" s="24">
         <v>24</v>
       </c>
-      <c r="O2" s="25" t="n">
-        <f aca="false">N2-M2</f>
+      <c r="O2" s="25">
+        <f t="shared" ref="O2:O10" si="2">N2-M2</f>
         <v>-2</v>
       </c>
-      <c r="P2" s="27" t="n">
-        <f aca="false">L2-F2</f>
+      <c r="P2" s="27">
+        <f t="shared" ref="P2:P10" si="3">L2-F2</f>
         <v>-11</v>
       </c>
-      <c r="Q2" s="28" t="n">
-        <f aca="false">O2-I2</f>
+      <c r="Q2" s="28">
+        <f>O2-I2</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="n">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="29">
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -686,57 +883,57 @@
       <c r="C3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="30" t="n">
+      <c r="D3" s="30">
         <v>106</v>
       </c>
-      <c r="E3" s="31" t="n">
+      <c r="E3" s="31">
         <v>99</v>
       </c>
-      <c r="F3" s="22" t="n">
-        <f aca="false">D3-E3</f>
+      <c r="F3" s="22">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G3" s="32" t="n">
+      <c r="G3" s="32">
         <v>20</v>
       </c>
-      <c r="H3" s="33" t="n">
+      <c r="H3" s="33">
         <v>29</v>
       </c>
-      <c r="I3" s="25" t="n">
-        <f aca="false">G3-H3</f>
+      <c r="I3" s="25">
+        <f>G3-H3</f>
         <v>-9</v>
       </c>
-      <c r="J3" s="34" t="n">
+      <c r="J3" s="34">
         <v>97</v>
       </c>
-      <c r="K3" s="31" t="n">
+      <c r="K3" s="31">
         <v>96</v>
       </c>
-      <c r="L3" s="22" t="n">
-        <f aca="false">J3-K3</f>
+      <c r="L3" s="22">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M3" s="32" t="n">
+      <c r="M3" s="32">
         <v>21</v>
       </c>
-      <c r="N3" s="33" t="n">
+      <c r="N3" s="33">
         <v>25</v>
       </c>
-      <c r="O3" s="25" t="n">
-        <f aca="false">N3-M3</f>
+      <c r="O3" s="25">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="P3" s="27" t="n">
-        <f aca="false">L3-F3</f>
+      <c r="P3" s="27">
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
-      <c r="Q3" s="28" t="n">
-        <f aca="false">O3-I3</f>
+      <c r="Q3" s="28">
+        <f>O3-I3</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="n">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -745,57 +942,57 @@
       <c r="C4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="30" t="n">
+      <c r="D4" s="30">
         <v>104</v>
       </c>
-      <c r="E4" s="31" t="n">
+      <c r="E4" s="31">
         <v>100</v>
       </c>
-      <c r="F4" s="22" t="n">
-        <f aca="false">D4-E4</f>
+      <c r="F4" s="22">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G4" s="32" t="n">
+      <c r="G4" s="32">
         <v>29</v>
       </c>
-      <c r="H4" s="33" t="n">
+      <c r="H4" s="33">
         <v>28</v>
       </c>
-      <c r="I4" s="25" t="n">
-        <f aca="false">G4-H4</f>
+      <c r="I4" s="25">
+        <f>G4-H4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="34" t="n">
+      <c r="J4" s="34">
         <v>107</v>
       </c>
-      <c r="K4" s="31" t="n">
+      <c r="K4" s="31">
         <v>92</v>
       </c>
-      <c r="L4" s="22" t="n">
-        <f aca="false">J4-K4</f>
+      <c r="L4" s="22">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="M4" s="32" t="n">
+      <c r="M4" s="32">
         <v>23</v>
       </c>
-      <c r="N4" s="33" t="n">
+      <c r="N4" s="33">
         <v>25</v>
       </c>
-      <c r="O4" s="25" t="n">
-        <f aca="false">N4-M4</f>
+      <c r="O4" s="25">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="P4" s="27" t="n">
-        <f aca="false">L4-F4</f>
+      <c r="P4" s="27">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="Q4" s="28" t="n">
-        <f aca="false">O4-I4</f>
+      <c r="Q4" s="28">
+        <f>O4-I4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="n">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -804,14 +1001,14 @@
       <c r="C5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="30" t="n">
+      <c r="D5" s="30">
         <v>113</v>
       </c>
-      <c r="E5" s="31" t="n">
+      <c r="E5" s="31">
         <v>84</v>
       </c>
-      <c r="F5" s="22" t="n">
-        <f aca="false">D5-E5</f>
+      <c r="F5" s="22">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="G5" s="32"/>
@@ -819,24 +1016,24 @@
       <c r="I5" s="25"/>
       <c r="J5" s="34"/>
       <c r="K5" s="31"/>
-      <c r="L5" s="22" t="n">
-        <f aca="false">J5-K5</f>
+      <c r="L5" s="22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M5" s="32"/>
       <c r="N5" s="33"/>
-      <c r="O5" s="25" t="n">
-        <f aca="false">N5-M5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="27" t="n">
-        <f aca="false">L5-F5</f>
+      <c r="O5" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="27">
+        <f t="shared" si="3"/>
         <v>-29</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="n">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -845,206 +1042,208 @@
       <c r="C6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="30" t="n">
+      <c r="D6" s="30">
         <v>131</v>
       </c>
-      <c r="E6" s="31" t="n">
+      <c r="E6" s="31">
         <v>127</v>
       </c>
-      <c r="F6" s="22" t="n">
-        <f aca="false">D6-E6</f>
+      <c r="F6" s="22">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G6" s="32" t="n">
+      <c r="G6" s="32">
         <v>18</v>
       </c>
-      <c r="H6" s="33" t="n">
+      <c r="H6" s="33">
         <v>14</v>
       </c>
-      <c r="I6" s="25" t="n">
-        <f aca="false">G6-H6</f>
+      <c r="I6" s="25">
+        <f>G6-H6</f>
         <v>4</v>
       </c>
-      <c r="J6" s="34" t="n">
+      <c r="J6" s="34">
         <v>110</v>
       </c>
-      <c r="K6" s="31" t="n">
+      <c r="K6" s="31">
         <v>109</v>
       </c>
-      <c r="L6" s="22" t="n">
-        <f aca="false">J6-K6</f>
+      <c r="L6" s="22">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="M6" s="32" t="n">
+      <c r="M6" s="32">
         <v>25</v>
       </c>
-      <c r="N6" s="33" t="n">
+      <c r="N6" s="33">
         <v>22</v>
       </c>
-      <c r="O6" s="25" t="n">
-        <f aca="false">N6-M6</f>
+      <c r="O6" s="25">
+        <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-      <c r="P6" s="27" t="n">
-        <f aca="false">L6-F6</f>
+      <c r="P6" s="27">
+        <f t="shared" si="3"/>
         <v>-3</v>
       </c>
-      <c r="Q6" s="28" t="n">
-        <f aca="false">O6-I6</f>
+      <c r="Q6" s="28">
+        <f>O6-I6</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="22" t="n">
-        <f aca="false">D7-E7</f>
-        <v>0</v>
+      <c r="D7" s="30">
+        <v>111</v>
+      </c>
+      <c r="E7" s="31">
+        <v>118</v>
+      </c>
+      <c r="F7" s="22">
+        <f t="shared" si="0"/>
+        <v>-7</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="33"/>
-      <c r="I7" s="25" t="n">
-        <f aca="false">G7-H7</f>
-        <v>0</v>
-      </c>
+      <c r="I7" s="25"/>
       <c r="J7" s="34"/>
       <c r="K7" s="31"/>
-      <c r="L7" s="22" t="n">
-        <f aca="false">J7-K7</f>
+      <c r="L7" s="22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M7" s="32"/>
       <c r="N7" s="33"/>
-      <c r="O7" s="25" t="n">
-        <f aca="false">N7-M7</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="27" t="n">
-        <f aca="false">L7-F7</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="28" t="n">
-        <f aca="false">O7-I7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="27">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="Q7" s="28"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="22" t="n">
-        <f aca="false">D8-E8</f>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="25" t="n">
-        <f aca="false">G8-H8</f>
+      <c r="I8" s="25">
+        <f>G8-H8</f>
         <v>0</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="22" t="n">
-        <f aca="false">J8-K8</f>
+      <c r="L8" s="22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="25" t="n">
-        <f aca="false">N8-M8</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="27" t="n">
-        <f aca="false">L8-F8</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="28" t="n">
-        <f aca="false">O8-I8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O8" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28">
+        <f>O8-I8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="22" t="n">
-        <f aca="false">D9-E9</f>
+      <c r="F9" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
-      <c r="I9" s="25" t="n">
-        <f aca="false">G9-H9</f>
+      <c r="I9" s="25">
+        <f>G9-H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="22" t="n">
-        <f aca="false">J9-K9</f>
+      <c r="L9" s="22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="25" t="n">
-        <f aca="false">N9-M9</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="27" t="n">
-        <f aca="false">L9-F9</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="28" t="n">
-        <f aca="false">O9-I9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O9" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28">
+        <f>O9-I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="22" t="n">
-        <f aca="false">D10-E10</f>
+      <c r="F10" s="22">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33"/>
-      <c r="I10" s="25" t="n">
-        <f aca="false">G10-H10</f>
+      <c r="I10" s="25">
+        <f>G10-H10</f>
         <v>0</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="22" t="n">
-        <f aca="false">J10-K10</f>
+      <c r="L10" s="22">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="25" t="n">
-        <f aca="false">N10-M10</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="27" t="n">
-        <f aca="false">L10-F10</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="28" t="n">
-        <f aca="false">O10-I10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O10" s="25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="28">
+        <f>O10-I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -1063,7 +1262,7 @@
       <c r="P11" s="37"/>
       <c r="Q11" s="38"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -1082,7 +1281,7 @@
       <c r="P12" s="37"/>
       <c r="Q12" s="38"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1101,27 +1300,15 @@
       <c r="P13" s="37"/>
       <c r="Q13" s="38"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
-      <c r="B14" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>25</v>
-      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="35"/>
       <c r="G14" s="32"/>
-      <c r="H14" s="33" t="s">
-        <v>25</v>
-      </c>
+      <c r="H14" s="33"/>
       <c r="I14" s="36"/>
       <c r="J14" s="34"/>
       <c r="K14" s="31"/>
@@ -1132,16 +1319,14 @@
       <c r="P14" s="37"/>
       <c r="Q14" s="38"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="32" t="s">
-        <v>25</v>
-      </c>
+      <c r="G15" s="32"/>
       <c r="H15" s="33"/>
       <c r="I15" s="36"/>
       <c r="J15" s="34"/>
@@ -1153,7 +1338,7 @@
       <c r="P15" s="37"/>
       <c r="Q15" s="38"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -1172,7 +1357,7 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="38"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -1191,7 +1376,7 @@
       <c r="P17" s="37"/>
       <c r="Q17" s="38"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -1210,7 +1395,7 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="38"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -1229,7 +1414,7 @@
       <c r="P19" s="37"/>
       <c r="Q19" s="38"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -1248,7 +1433,7 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="38"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -1267,7 +1452,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="38"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -1286,7 +1471,7 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="38"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -1305,7 +1490,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="38"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -1324,7 +1509,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="38"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -1343,7 +1528,7 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="38"/>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -1362,7 +1547,7 @@
       <c r="P26" s="37"/>
       <c r="Q26" s="38"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -1381,7 +1566,7 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="38"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1400,7 +1585,7 @@
       <c r="P28" s="37"/>
       <c r="Q28" s="38"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -1419,7 +1604,7 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="38"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -1438,7 +1623,7 @@
       <c r="P30" s="37"/>
       <c r="Q30" s="38"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -1457,7 +1642,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="38"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -1476,7 +1661,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="38"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -1495,7 +1680,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="38"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -1514,7 +1699,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="38"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -1533,7 +1718,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="38"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -1552,7 +1737,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="38"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -1571,7 +1756,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="38"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -1590,7 +1775,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="38"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -1609,7 +1794,7 @@
       <c r="P39" s="37"/>
       <c r="Q39" s="38"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -1628,7 +1813,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="38"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -1648,12 +1833,7 @@
       <c r="Q41" s="38"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4260"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,11 +1114,15 @@
       <c r="G7" s="32"/>
       <c r="H7" s="33"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="31"/>
+      <c r="J7" s="34">
+        <v>93</v>
+      </c>
+      <c r="K7" s="31">
+        <v>98</v>
+      </c>
       <c r="L7" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="M7" s="32"/>
       <c r="N7" s="33"/>
@@ -1128,7 +1132,7 @@
       </c>
       <c r="P7" s="27">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q7" s="28"/>
     </row>

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1124,11 +1124,15 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="33"/>
+      <c r="M7" s="32">
+        <v>34</v>
+      </c>
+      <c r="N7" s="33">
+        <v>16</v>
+      </c>
       <c r="O7" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="P7" s="27">
         <f t="shared" si="3"/>

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -741,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,9 +1141,15 @@
       <c r="Q7" s="28"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="29">
+        <v>7</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
       <c r="F8" s="22">

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -1,20 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joni\Documents\GitHub\NBA-analyysi\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4260"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -93,14 +89,32 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="9">
@@ -154,249 +168,303 @@
     </fill>
   </fills>
   <borders count="15">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -455,313 +523,39 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF1F4E79"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Q41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
-    <col min="4" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="9.140625" style="3"/>
-    <col min="7" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
-    <col min="10" max="11" width="9.140625" style="2"/>
-    <col min="12" max="12" width="9.140625" style="3"/>
-    <col min="13" max="14" width="9.140625" style="4"/>
-    <col min="15" max="15" width="9.140625" style="5"/>
-    <col min="16" max="16" width="10.28515625" style="6"/>
-    <col min="17" max="17" width="10.85546875" style="7"/>
-    <col min="18" max="1025" width="8.7109375"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="4" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="3" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="4" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="5" width="9.14285714285714"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="6" width="10.2857142857143"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="7" width="10.8520408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.70918367346939"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -814,8 +608,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="19">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="19" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -824,57 +618,57 @@
       <c r="C2" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="20" t="n">
         <v>106</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="21" t="n">
         <v>96</v>
       </c>
-      <c r="F2" s="22">
-        <f t="shared" ref="F2:F10" si="0">D2-E2</f>
+      <c r="F2" s="22" t="n">
+        <f aca="false">D2-E2</f>
         <v>10</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="23" t="n">
         <v>29</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="24" t="n">
         <v>23</v>
       </c>
-      <c r="I2" s="25">
-        <f>G2-H2</f>
+      <c r="I2" s="25" t="n">
+        <f aca="false">G2-H2</f>
         <v>6</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="26" t="n">
         <v>91</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="21" t="n">
         <v>92</v>
       </c>
-      <c r="L2" s="22">
-        <f t="shared" ref="L2:L10" si="1">J2-K2</f>
+      <c r="L2" s="22" t="n">
+        <f aca="false">J2-K2</f>
         <v>-1</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="23" t="n">
         <v>26</v>
       </c>
-      <c r="N2" s="24">
+      <c r="N2" s="24" t="n">
         <v>24</v>
       </c>
-      <c r="O2" s="25">
-        <f t="shared" ref="O2:O10" si="2">N2-M2</f>
+      <c r="O2" s="25" t="n">
+        <f aca="false">N2-M2</f>
         <v>-2</v>
       </c>
-      <c r="P2" s="27">
-        <f t="shared" ref="P2:P10" si="3">L2-F2</f>
+      <c r="P2" s="27" t="n">
+        <f aca="false">L2-F2</f>
         <v>-11</v>
       </c>
-      <c r="Q2" s="28">
-        <f>O2-I2</f>
+      <c r="Q2" s="28" t="n">
+        <f aca="false">O2-I2</f>
         <v>-8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="29" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -883,57 +677,57 @@
       <c r="C3" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="30" t="n">
         <v>106</v>
       </c>
-      <c r="E3" s="31">
+      <c r="E3" s="31" t="n">
         <v>99</v>
       </c>
-      <c r="F3" s="22">
-        <f t="shared" si="0"/>
+      <c r="F3" s="22" t="n">
+        <f aca="false">D3-E3</f>
         <v>7</v>
       </c>
-      <c r="G3" s="32">
+      <c r="G3" s="32" t="n">
         <v>20</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="33" t="n">
         <v>29</v>
       </c>
-      <c r="I3" s="25">
-        <f>G3-H3</f>
+      <c r="I3" s="25" t="n">
+        <f aca="false">G3-H3</f>
         <v>-9</v>
       </c>
-      <c r="J3" s="34">
+      <c r="J3" s="34" t="n">
         <v>97</v>
       </c>
-      <c r="K3" s="31">
+      <c r="K3" s="31" t="n">
         <v>96</v>
       </c>
-      <c r="L3" s="22">
-        <f t="shared" si="1"/>
+      <c r="L3" s="22" t="n">
+        <f aca="false">J3-K3</f>
         <v>1</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="32" t="n">
         <v>21</v>
       </c>
-      <c r="N3" s="33">
+      <c r="N3" s="33" t="n">
         <v>25</v>
       </c>
-      <c r="O3" s="25">
-        <f t="shared" si="2"/>
+      <c r="O3" s="25" t="n">
+        <f aca="false">N3-M3</f>
         <v>4</v>
       </c>
-      <c r="P3" s="27">
-        <f t="shared" si="3"/>
+      <c r="P3" s="27" t="n">
+        <f aca="false">L3-F3</f>
         <v>-6</v>
       </c>
-      <c r="Q3" s="28">
-        <f>O3-I3</f>
+      <c r="Q3" s="28" t="n">
+        <f aca="false">O3-I3</f>
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="29">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="29" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="29" t="s">
@@ -942,57 +736,57 @@
       <c r="C4" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="30" t="n">
         <v>104</v>
       </c>
-      <c r="E4" s="31">
+      <c r="E4" s="31" t="n">
         <v>100</v>
       </c>
-      <c r="F4" s="22">
-        <f t="shared" si="0"/>
+      <c r="F4" s="22" t="n">
+        <f aca="false">D4-E4</f>
         <v>4</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="32" t="n">
         <v>29</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="33" t="n">
         <v>28</v>
       </c>
-      <c r="I4" s="25">
-        <f>G4-H4</f>
+      <c r="I4" s="25" t="n">
+        <f aca="false">G4-H4</f>
         <v>1</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="34" t="n">
         <v>107</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="31" t="n">
         <v>92</v>
       </c>
-      <c r="L4" s="22">
-        <f t="shared" si="1"/>
+      <c r="L4" s="22" t="n">
+        <f aca="false">J4-K4</f>
         <v>15</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="32" t="n">
         <v>23</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="33" t="n">
         <v>25</v>
       </c>
-      <c r="O4" s="25">
-        <f t="shared" si="2"/>
+      <c r="O4" s="25" t="n">
+        <f aca="false">N4-M4</f>
         <v>2</v>
       </c>
-      <c r="P4" s="27">
-        <f t="shared" si="3"/>
+      <c r="P4" s="27" t="n">
+        <f aca="false">L4-F4</f>
         <v>11</v>
       </c>
-      <c r="Q4" s="28">
-        <f>O4-I4</f>
+      <c r="Q4" s="28" t="n">
+        <f aca="false">O4-I4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="29" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
@@ -1001,39 +795,47 @@
       <c r="C5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="30" t="n">
         <v>113</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="31" t="n">
         <v>84</v>
       </c>
-      <c r="F5" s="22">
-        <f t="shared" si="0"/>
+      <c r="F5" s="22" t="n">
+        <f aca="false">D5-E5</f>
         <v>29</v>
       </c>
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="27">
-        <f t="shared" si="3"/>
-        <v>-29</v>
+      <c r="J5" s="34" t="n">
+        <v>102</v>
+      </c>
+      <c r="K5" s="31" t="n">
+        <v>107</v>
+      </c>
+      <c r="L5" s="22" t="n">
+        <f aca="false">J5-K5</f>
+        <v>-5</v>
+      </c>
+      <c r="M5" s="32" t="n">
+        <v>28</v>
+      </c>
+      <c r="N5" s="33" t="n">
+        <v>33</v>
+      </c>
+      <c r="O5" s="25" t="n">
+        <f aca="false">N5-M5</f>
+        <v>5</v>
+      </c>
+      <c r="P5" s="27" t="n">
+        <f aca="false">L5-F5</f>
+        <v>-34</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="29" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
@@ -1042,57 +844,57 @@
       <c r="C6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="30" t="n">
         <v>131</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="31" t="n">
         <v>127</v>
       </c>
-      <c r="F6" s="22">
-        <f t="shared" si="0"/>
+      <c r="F6" s="22" t="n">
+        <f aca="false">D6-E6</f>
         <v>4</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="32" t="n">
         <v>18</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="33" t="n">
         <v>14</v>
       </c>
-      <c r="I6" s="25">
-        <f>G6-H6</f>
+      <c r="I6" s="25" t="n">
+        <f aca="false">G6-H6</f>
         <v>4</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="34" t="n">
         <v>110</v>
       </c>
-      <c r="K6" s="31">
+      <c r="K6" s="31" t="n">
         <v>109</v>
       </c>
-      <c r="L6" s="22">
-        <f t="shared" si="1"/>
+      <c r="L6" s="22" t="n">
+        <f aca="false">J6-K6</f>
         <v>1</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="32" t="n">
         <v>25</v>
       </c>
-      <c r="N6" s="33">
+      <c r="N6" s="33" t="n">
         <v>22</v>
       </c>
-      <c r="O6" s="25">
-        <f t="shared" si="2"/>
+      <c r="O6" s="25" t="n">
+        <f aca="false">N6-M6</f>
         <v>-3</v>
       </c>
-      <c r="P6" s="27">
-        <f t="shared" si="3"/>
+      <c r="P6" s="27" t="n">
+        <f aca="false">L6-F6</f>
         <v>-3</v>
       </c>
-      <c r="Q6" s="28">
-        <f>O6-I6</f>
+      <c r="Q6" s="28" t="n">
+        <f aca="false">O6-I6</f>
         <v>-7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="29" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="29" t="s">
@@ -1101,47 +903,47 @@
       <c r="C7" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="30" t="n">
         <v>111</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="31" t="n">
         <v>118</v>
       </c>
-      <c r="F7" s="22">
-        <f t="shared" si="0"/>
+      <c r="F7" s="22" t="n">
+        <f aca="false">D7-E7</f>
         <v>-7</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="33"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="34">
+      <c r="J7" s="34" t="n">
         <v>93</v>
       </c>
-      <c r="K7" s="31">
+      <c r="K7" s="31" t="n">
         <v>98</v>
       </c>
-      <c r="L7" s="22">
-        <f t="shared" si="1"/>
+      <c r="L7" s="22" t="n">
+        <f aca="false">J7-K7</f>
         <v>-5</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="32" t="n">
         <v>34</v>
       </c>
-      <c r="N7" s="33">
+      <c r="N7" s="33" t="n">
         <v>16</v>
       </c>
-      <c r="O7" s="25">
-        <f t="shared" si="2"/>
+      <c r="O7" s="25" t="n">
+        <f aca="false">N7-M7</f>
         <v>-18</v>
       </c>
-      <c r="P7" s="27">
-        <f t="shared" si="3"/>
+      <c r="P7" s="27" t="n">
+        <f aca="false">L7-F7</f>
         <v>2</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="29" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="29" t="s">
@@ -1152,112 +954,112 @@
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="22">
-        <f t="shared" si="0"/>
+      <c r="F8" s="22" t="n">
+        <f aca="false">D8-E8</f>
         <v>0</v>
       </c>
       <c r="G8" s="32"/>
       <c r="H8" s="33"/>
-      <c r="I8" s="25">
-        <f>G8-H8</f>
+      <c r="I8" s="25" t="n">
+        <f aca="false">G8-H8</f>
         <v>0</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="31"/>
-      <c r="L8" s="22">
-        <f t="shared" si="1"/>
+      <c r="L8" s="22" t="n">
+        <f aca="false">J8-K8</f>
         <v>0</v>
       </c>
       <c r="M8" s="32"/>
       <c r="N8" s="33"/>
-      <c r="O8" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="28">
-        <f>O8-I8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O8" s="25" t="n">
+        <f aca="false">N8-M8</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="27" t="n">
+        <f aca="false">L8-F8</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="28" t="n">
+        <f aca="false">O8-I8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
       <c r="E9" s="31"/>
-      <c r="F9" s="22">
-        <f t="shared" si="0"/>
+      <c r="F9" s="22" t="n">
+        <f aca="false">D9-E9</f>
         <v>0</v>
       </c>
       <c r="G9" s="32"/>
       <c r="H9" s="33"/>
-      <c r="I9" s="25">
-        <f>G9-H9</f>
+      <c r="I9" s="25" t="n">
+        <f aca="false">G9-H9</f>
         <v>0</v>
       </c>
       <c r="J9" s="34"/>
       <c r="K9" s="31"/>
-      <c r="L9" s="22">
-        <f t="shared" si="1"/>
+      <c r="L9" s="22" t="n">
+        <f aca="false">J9-K9</f>
         <v>0</v>
       </c>
       <c r="M9" s="32"/>
       <c r="N9" s="33"/>
-      <c r="O9" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="28">
-        <f>O9-I9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O9" s="25" t="n">
+        <f aca="false">N9-M9</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="27" t="n">
+        <f aca="false">L9-F9</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28" t="n">
+        <f aca="false">O9-I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
       <c r="E10" s="31"/>
-      <c r="F10" s="22">
-        <f t="shared" si="0"/>
+      <c r="F10" s="22" t="n">
+        <f aca="false">D10-E10</f>
         <v>0</v>
       </c>
       <c r="G10" s="32"/>
       <c r="H10" s="33"/>
-      <c r="I10" s="25">
-        <f>G10-H10</f>
+      <c r="I10" s="25" t="n">
+        <f aca="false">G10-H10</f>
         <v>0</v>
       </c>
       <c r="J10" s="34"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="22">
-        <f t="shared" si="1"/>
+      <c r="L10" s="22" t="n">
+        <f aca="false">J10-K10</f>
         <v>0</v>
       </c>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="28">
-        <f>O10-I10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O10" s="25" t="n">
+        <f aca="false">N10-M10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="27" t="n">
+        <f aca="false">L10-F10</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="28" t="n">
+        <f aca="false">O10-I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -1276,7 +1078,7 @@
       <c r="P11" s="37"/>
       <c r="Q11" s="38"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -1295,7 +1097,7 @@
       <c r="P12" s="37"/>
       <c r="Q12" s="38"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1314,7 +1116,7 @@
       <c r="P13" s="37"/>
       <c r="Q13" s="38"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -1333,7 +1135,7 @@
       <c r="P14" s="37"/>
       <c r="Q14" s="38"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29"/>
       <c r="B15" s="29"/>
       <c r="C15" s="29"/>
@@ -1352,7 +1154,7 @@
       <c r="P15" s="37"/>
       <c r="Q15" s="38"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -1371,7 +1173,7 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="38"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -1390,7 +1192,7 @@
       <c r="P17" s="37"/>
       <c r="Q17" s="38"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29"/>
       <c r="B18" s="29"/>
       <c r="C18" s="29"/>
@@ -1409,7 +1211,7 @@
       <c r="P18" s="37"/>
       <c r="Q18" s="38"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
@@ -1428,7 +1230,7 @@
       <c r="P19" s="37"/>
       <c r="Q19" s="38"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -1447,7 +1249,7 @@
       <c r="P20" s="37"/>
       <c r="Q20" s="38"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -1466,7 +1268,7 @@
       <c r="P21" s="37"/>
       <c r="Q21" s="38"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
@@ -1485,7 +1287,7 @@
       <c r="P22" s="37"/>
       <c r="Q22" s="38"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
@@ -1504,7 +1306,7 @@
       <c r="P23" s="37"/>
       <c r="Q23" s="38"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -1523,7 +1325,7 @@
       <c r="P24" s="37"/>
       <c r="Q24" s="38"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -1542,7 +1344,7 @@
       <c r="P25" s="37"/>
       <c r="Q25" s="38"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -1561,7 +1363,7 @@
       <c r="P26" s="37"/>
       <c r="Q26" s="38"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -1580,7 +1382,7 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="38"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1599,7 +1401,7 @@
       <c r="P28" s="37"/>
       <c r="Q28" s="38"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -1618,7 +1420,7 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="38"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -1637,7 +1439,7 @@
       <c r="P30" s="37"/>
       <c r="Q30" s="38"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -1656,7 +1458,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="38"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -1675,7 +1477,7 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="38"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -1694,7 +1496,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="38"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -1713,7 +1515,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="38"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -1732,7 +1534,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="38"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -1751,7 +1553,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="38"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -1770,7 +1572,7 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="38"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -1789,7 +1591,7 @@
       <c r="P38" s="37"/>
       <c r="Q38" s="38"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -1808,7 +1610,7 @@
       <c r="P39" s="37"/>
       <c r="Q39" s="38"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -1827,7 +1629,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="38"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -1847,7 +1649,12 @@
       <c r="Q41" s="38"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="4260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,10 +162,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="hair">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="hair">
         <color auto="1"/>
       </right>
       <top/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,21 +1014,29 @@
       <c r="G5" s="32"/>
       <c r="H5" s="33"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="31"/>
+      <c r="J5" s="34">
+        <v>102</v>
+      </c>
+      <c r="K5" s="31">
+        <v>107</v>
+      </c>
       <c r="L5" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="32"/>
-      <c r="N5" s="33"/>
+        <v>-5</v>
+      </c>
+      <c r="M5" s="32">
+        <v>28</v>
+      </c>
+      <c r="N5" s="33">
+        <v>33</v>
+      </c>
       <c r="O5" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P5" s="27">
         <f t="shared" si="3"/>
-        <v>-29</v>
+        <v>-34</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
@@ -1150,17 +1158,25 @@
       <c r="C8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
+      <c r="D8" s="30">
+        <v>106</v>
+      </c>
+      <c r="E8" s="31">
+        <v>104</v>
+      </c>
       <c r="F8" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="32">
+        <v>29</v>
+      </c>
+      <c r="H8" s="33">
+        <v>27</v>
+      </c>
       <c r="I8" s="25">
         <f>G8-H8</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="31"/>
@@ -1176,11 +1192,11 @@
       </c>
       <c r="P8" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="Q8" s="28">
         <f>O8-I8</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">

--- a/NBA-tilastot.xlsx
+++ b/NBA-tilastot.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -742,7 +742,7 @@
   <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1178,25 +1178,33 @@
         <f>G8-H8</f>
         <v>2</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="31"/>
+      <c r="J8" s="34">
+        <v>110</v>
+      </c>
+      <c r="K8" s="31">
+        <v>102</v>
+      </c>
       <c r="L8" s="22">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="33"/>
+        <v>8</v>
+      </c>
+      <c r="M8" s="32">
+        <v>27</v>
+      </c>
+      <c r="N8" s="33">
+        <v>23</v>
+      </c>
       <c r="O8" s="25">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="P8" s="27">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="Q8" s="28">
         <f>O8-I8</f>
-        <v>-2</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
